--- a/FR - Frame & Body/Cost/FR_A0700.xlsx
+++ b/FR - Frame & Body/Cost/FR_A0700.xlsx
@@ -112,12 +112,12 @@
     <definedName name="FR_0700_007_p">FR_0700_007!$I$17</definedName>
     <definedName name="FR_0700_007_q">FR_0700_007!$N$3</definedName>
     <definedName name="FR_A0700">'FR A0700'!$B$5</definedName>
-    <definedName name="FR_A0700_f">'FR A0700'!$J$38</definedName>
+    <definedName name="FR_A0700_f">'FR A0700'!$J$40</definedName>
     <definedName name="FR_A0700_m">'FR A0700'!$N$23</definedName>
-    <definedName name="FR_A0700_p">'FR A0700'!$I$32</definedName>
+    <definedName name="FR_A0700_p">'FR A0700'!$I$31</definedName>
     <definedName name="FR_A0700_pa">'FR A0700'!$E$18</definedName>
     <definedName name="FR_A0700_q">'FR A0700'!$N$3</definedName>
-    <definedName name="FR_A0700_t">'FR A0700'!$I$42</definedName>
+    <definedName name="FR_A0700_t">'FR A0700'!$I$44</definedName>
     <definedName name="gbvf">#REF!</definedName>
     <definedName name="gbvfcd">#REF!</definedName>
     <definedName name="gr">#REF!</definedName>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="215">
   <si>
     <t>University</t>
   </si>
@@ -634,27 +634,15 @@
     <t>Weld</t>
   </si>
   <si>
-    <t>Welding the Front and Rear Rails Mounts to the frame</t>
-  </si>
-  <si>
     <t>Assemble, 1 kg, Loose</t>
   </si>
   <si>
-    <t>Inserting the Rails between the Front and Rear Rails Mounts</t>
-  </si>
-  <si>
-    <t>Fixing the Rails to the Front and Rear Rails Mounts</t>
-  </si>
-  <si>
     <t>Reaction Tool &lt;= 25.4 mm</t>
   </si>
   <si>
     <t>Ratchet &lt;= 25.4 mm</t>
   </si>
   <si>
-    <t>Welding the Sheath for Cable Mount</t>
-  </si>
-  <si>
     <t>Aerosol Apply</t>
   </si>
   <si>
@@ -733,9 +721,6 @@
     <t>FR_0300_005</t>
   </si>
   <si>
-    <t>Steel, Alloy</t>
-  </si>
-  <si>
     <t>FR_0300_006</t>
   </si>
   <si>
@@ -838,26 +823,51 @@
     <t>Back Side Plate</t>
   </si>
   <si>
-    <t>VELCRO</t>
-  </si>
-  <si>
     <t>Painting the Brackets</t>
   </si>
   <si>
-    <t>PUSH CLIP</t>
-  </si>
-  <si>
     <t>Nose Bracket</t>
   </si>
   <si>
     <t>2 parts made from the same plate</t>
+  </si>
+  <si>
+    <t>Painting the Nose, the Right Inlet and the Left Inlet</t>
+  </si>
+  <si>
+    <t>Pin, Quick Release</t>
+  </si>
+  <si>
+    <t>Fixing the Nose to the Brackets</t>
+  </si>
+  <si>
+    <t>Hook and Loop, Hook Side (Velcro)</t>
+  </si>
+  <si>
+    <t>cm^2</t>
+  </si>
+  <si>
+    <t>Hook and Loop, Loop Side (Velcro)</t>
+  </si>
+  <si>
+    <t>Fixing the Side Plates</t>
+  </si>
+  <si>
+    <t>Welding the Brackets</t>
+  </si>
+  <si>
+    <t>Steel, Alloy (kg)</t>
+  </si>
+  <si>
+    <t>A faire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="14">
+  <numFmts count="17">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
@@ -872,6 +882,8 @@
     <numFmt numFmtId="175" formatCode="0.00000"/>
     <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1604,7 +1616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1619,8 +1631,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1858,7 +1871,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1945,11 +1957,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="37" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1964,12 +1971,35 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="37" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="25" fillId="0" borderId="37" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Cost_Green" xfId="4"/>
     <cellStyle name="Currency 2" xfId="2"/>
     <cellStyle name="Lien hypertexte" xfId="8" builtinId="8"/>
+    <cellStyle name="Monétaire" xfId="10" builtinId="4"/>
     <cellStyle name="Monétaire 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -2135,6 +2165,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448DC9E3-89C1-4B40-A877-65D4C0709B5E}"/>
@@ -2146,7 +2177,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2184,6 +2215,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF051E2-FF41-4202-8EA5-26FB400A5E64}"/>
@@ -2195,7 +2227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2233,6 +2265,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A50EA3-022C-4B20-81D9-DEF714DAEDBF}"/>
@@ -2244,7 +2277,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2282,6 +2315,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C254D659-8AFD-49AC-B4A6-B367AC53966A}"/>
@@ -2293,7 +2327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2331,6 +2365,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C7DD99-DB36-49DD-8E44-0DDDEB1B2998}"/>
@@ -2342,7 +2377,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2380,6 +2415,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819798B4-8774-48B6-9141-551CCEDAE57D}"/>
@@ -2391,7 +2427,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2429,6 +2465,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF91B09-9F57-42A5-96F5-05E74249EC88}"/>
@@ -2440,7 +2477,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3138,7 +3175,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3259,7 +3296,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="118" t="s">
@@ -3289,7 +3326,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -3333,7 +3370,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -3416,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="29">
@@ -3427,12 +3464,12 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="155">
+        <v>166</v>
+      </c>
+      <c r="J11" s="154">
         <v>1.0919999999999999E-2</v>
       </c>
-      <c r="K11" s="159">
+      <c r="K11" s="158">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L11" s="28">
@@ -3525,7 +3562,7 @@
       <c r="A15" s="79">
         <v>10</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="30"/>
@@ -3535,11 +3572,11 @@
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="143">
         <v>1</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H15" s="30">
         <v>0.5</v>
@@ -3560,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="29">
@@ -3569,11 +3606,11 @@
       <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="151">
+      <c r="F16" s="150">
         <v>35.9</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H16" s="23">
         <v>1</v>
@@ -3590,25 +3627,25 @@
       <c r="O16" s="60"/>
     </row>
     <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="171">
+      <c r="A17" s="170">
         <v>30</v>
       </c>
-      <c r="B17" s="172" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="162">
+      <c r="B17" s="171" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="172"/>
+      <c r="D17" s="161">
         <v>0.25</v>
       </c>
-      <c r="E17" s="174" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="173">
+      <c r="E17" s="173" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="172">
         <v>3</v>
       </c>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="162">
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="161">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -3620,31 +3657,31 @@
       <c r="O17" s="64"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="176">
+      <c r="A18" s="175">
         <v>40</v>
       </c>
-      <c r="B18" s="177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="176" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="178">
+      <c r="B18" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="177">
         <v>0.2</v>
       </c>
-      <c r="E18" s="179" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="176">
+      <c r="E18" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="175">
         <v>0.16200000000000001</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H18" s="23">
         <v>1</v>
       </c>
-      <c r="I18" s="162">
+      <c r="I18" s="161">
         <f t="shared" si="0"/>
         <v>3.2400000000000005E-2</v>
       </c>
@@ -3718,10 +3755,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3899,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="118" t="s">
@@ -3892,7 +3929,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -3936,7 +3973,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -4019,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="29">
@@ -4030,12 +4067,12 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="156">
+        <v>166</v>
+      </c>
+      <c r="J11" s="155">
         <v>9.5840000000000005E-3</v>
       </c>
-      <c r="K11" s="159">
+      <c r="K11" s="158">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L11" s="28">
@@ -4128,7 +4165,7 @@
       <c r="A15" s="79">
         <v>10</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="30"/>
@@ -4138,11 +4175,11 @@
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="143">
         <v>1</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H15" s="30">
         <v>0.5</v>
@@ -4163,7 +4200,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="29">
@@ -4172,11 +4209,11 @@
       <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="151">
+      <c r="F16" s="150">
         <v>31.2</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H16" s="23">
         <v>1</v>
@@ -4193,25 +4230,25 @@
       <c r="O16" s="60"/>
     </row>
     <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="171">
+      <c r="A17" s="170">
         <v>30</v>
       </c>
-      <c r="B17" s="172" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="162">
+      <c r="B17" s="171" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="172"/>
+      <c r="D17" s="161">
         <v>0.25</v>
       </c>
-      <c r="E17" s="174" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="173">
+      <c r="E17" s="173" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="172">
         <v>3</v>
       </c>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="162">
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="161">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -4223,31 +4260,31 @@
       <c r="O17" s="64"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="175">
+      <c r="A18" s="174">
         <v>40</v>
       </c>
-      <c r="B18" s="177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="176" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="178">
+      <c r="B18" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="177">
         <v>0.2</v>
       </c>
-      <c r="E18" s="179" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="175">
+      <c r="E18" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="174">
         <v>0.16200000000000001</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H18" s="23">
         <v>1</v>
       </c>
-      <c r="I18" s="162">
+      <c r="I18" s="161">
         <f t="shared" si="0"/>
         <v>3.2400000000000005E-2</v>
       </c>
@@ -4313,18 +4350,16 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4343,15 +4378,14 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4400,7 +4434,7 @@
       </c>
       <c r="N2" s="72">
         <f>FR_0700_005_m+FR_0700_005_p</f>
-        <v>2.9</v>
+        <v>1.0759419618832944</v>
       </c>
       <c r="O2" s="60"/>
     </row>
@@ -4465,7 +4499,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="118" t="s">
@@ -4486,7 +4520,7 @@
       </c>
       <c r="N5" s="72">
         <f>N3*N2</f>
-        <v>5.8</v>
+        <v>2.1518839237665888</v>
       </c>
       <c r="O5" s="60"/>
     </row>
@@ -4495,7 +4529,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -4620,7 +4654,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="29">
@@ -4631,10 +4665,13 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="18">
+        <v>166</v>
+      </c>
+      <c r="J11" s="156">
+        <f>0.000581+PI()*0.003*0.003</f>
+        <v>6.0927433388230812E-4</v>
+      </c>
+      <c r="K11" s="158">
         <v>1.5E-3</v>
       </c>
       <c r="L11" s="28">
@@ -4645,7 +4682,7 @@
       </c>
       <c r="N11" s="29">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
-        <v>2.25</v>
+        <v>1.6141961883294399E-2</v>
       </c>
       <c r="O11" s="65"/>
     </row>
@@ -4667,7 +4704,7 @@
       </c>
       <c r="N12" s="125">
         <f>SUM(N11:N11)</f>
-        <v>2.25</v>
+        <v>1.6141961883294399E-2</v>
       </c>
       <c r="O12" s="60"/>
     </row>
@@ -4727,7 +4764,7 @@
       <c r="A15" s="79">
         <v>10</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="30"/>
@@ -4737,11 +4774,11 @@
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="143">
         <v>1</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H15" s="30">
         <v>0.5</v>
@@ -4771,16 +4808,18 @@
       <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="151"/>
+      <c r="F16" s="150">
+        <v>13.66</v>
+      </c>
       <c r="G16" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H16" s="23">
         <v>3</v>
       </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4098</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="54"/>
@@ -4802,7 +4841,7 @@
       </c>
       <c r="I17" s="125">
         <f>SUM(I15:I16)</f>
-        <v>0.65</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -4845,17 +4884,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4874,9 +4913,7 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4931,7 +4968,7 @@
       </c>
       <c r="N2" s="72">
         <f>FR_0700_006_m+FR_0700_006_p</f>
-        <v>2.9</v>
+        <v>1.0788162660645444</v>
       </c>
       <c r="O2" s="60"/>
     </row>
@@ -4996,7 +5033,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="118" t="s">
@@ -5017,7 +5054,7 @@
       </c>
       <c r="N5" s="72">
         <f>N3*N2</f>
-        <v>5.8</v>
+        <v>2.1576325321290888</v>
       </c>
       <c r="O5" s="60"/>
     </row>
@@ -5026,7 +5063,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -5151,7 +5188,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="29">
@@ -5162,10 +5199,13 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="18">
+        <v>169</v>
+      </c>
+      <c r="J11" s="156">
+        <f>0.000825371+PI()*0.003*0.003</f>
+        <v>8.5364533388230808E-4</v>
+      </c>
+      <c r="K11" s="158">
         <v>1.5E-3</v>
       </c>
       <c r="L11" s="28">
@@ -5176,7 +5216,7 @@
       </c>
       <c r="N11" s="29">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
-        <v>2.25</v>
+        <v>2.2616266064544401E-2</v>
       </c>
       <c r="O11" s="65"/>
     </row>
@@ -5198,7 +5238,7 @@
       </c>
       <c r="N12" s="125">
         <f>SUM(N11:N11)</f>
-        <v>2.25</v>
+        <v>2.2616266064544401E-2</v>
       </c>
       <c r="O12" s="60"/>
     </row>
@@ -5258,7 +5298,7 @@
       <c r="A15" s="79">
         <v>10</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="30"/>
@@ -5268,11 +5308,11 @@
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="143">
         <v>1</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H15" s="30">
         <v>0.5</v>
@@ -5302,16 +5342,18 @@
       <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="151"/>
+      <c r="F16" s="144">
+        <v>13.54</v>
+      </c>
       <c r="G16" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H16" s="23">
         <v>3</v>
       </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="54"/>
@@ -5333,7 +5375,7 @@
       </c>
       <c r="I17" s="125">
         <f>SUM(I15:I16)</f>
-        <v>0.65</v>
+        <v>1.0562</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -5376,17 +5418,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5405,9 +5447,7 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5463,7 +5503,7 @@
       </c>
       <c r="N2" s="72">
         <f>FR_0700_007_m+FR_0700_007_p</f>
-        <v>2.5750000000000002</v>
+        <v>0.73773216315204448</v>
       </c>
       <c r="O2" s="60"/>
     </row>
@@ -5528,7 +5568,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="118" t="s">
@@ -5549,7 +5589,7 @@
       </c>
       <c r="N5" s="72">
         <f>N3*N2</f>
-        <v>10.3</v>
+        <v>2.9509286526081779</v>
       </c>
       <c r="O5" s="60"/>
     </row>
@@ -5558,7 +5598,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -5683,7 +5723,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="29">
@@ -5694,10 +5734,13 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="18">
+        <v>166</v>
+      </c>
+      <c r="J11" s="156">
+        <f>0.000603277+PI()*0.003*0.003</f>
+        <v>6.3155133388230814E-4</v>
+      </c>
+      <c r="K11" s="158">
         <v>1.5E-3</v>
       </c>
       <c r="L11" s="28">
@@ -5708,7 +5751,7 @@
       </c>
       <c r="N11" s="29">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
-        <v>2.25</v>
+        <v>1.6732163152044403E-2</v>
       </c>
       <c r="O11" s="65"/>
     </row>
@@ -5730,7 +5773,7 @@
       </c>
       <c r="N12" s="125">
         <f>SUM(N11:N11)</f>
-        <v>2.25</v>
+        <v>1.6732163152044403E-2</v>
       </c>
       <c r="O12" s="60"/>
     </row>
@@ -5790,7 +5833,7 @@
       <c r="A15" s="79">
         <v>10</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="30"/>
@@ -5800,11 +5843,11 @@
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="143">
         <v>1</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H15" s="30">
         <v>0.25</v>
@@ -5834,16 +5877,18 @@
       <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="151"/>
+      <c r="F16" s="144">
+        <v>13.2</v>
+      </c>
       <c r="G16" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H16" s="23">
         <v>3</v>
       </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="54"/>
@@ -5865,7 +5910,7 @@
       </c>
       <c r="I17" s="125">
         <f>SUM(I15:I16)</f>
-        <v>0.32500000000000001</v>
+        <v>0.72100000000000009</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -5908,17 +5953,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6085,7 +6130,7 @@
       <c r="G7" s="99"/>
       <c r="H7" s="101">
         <f t="shared" ref="H7:H15" si="0">SUM(J7:M7)</f>
-        <v>12.195889632755819</v>
+        <v>15.939629425916666</v>
       </c>
       <c r="I7" s="102">
         <f>FR_A0700_q</f>
@@ -6093,23 +6138,23 @@
       </c>
       <c r="J7" s="103">
         <f>FR_A0700_m</f>
-        <v>0</v>
+        <v>11.660500169999999</v>
       </c>
       <c r="K7" s="103">
         <f>FR_A0700_p</f>
-        <v>11.094999999999999</v>
+        <v>1.61246258925</v>
       </c>
       <c r="L7" s="103">
         <f>FR_A0700_f</f>
-        <v>1.1008896327558189</v>
+        <v>0</v>
       </c>
       <c r="M7" s="103">
         <f>FR_A0700_t</f>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="N7" s="104">
         <f t="shared" ref="N7:N15" si="1">H7*I7</f>
-        <v>12.195889632755819</v>
+        <v>15.939629425916666</v>
       </c>
       <c r="O7" s="105"/>
     </row>
@@ -6230,7 +6275,7 @@
         <f t="shared" si="2"/>
         <v>Bodywork</v>
       </c>
-      <c r="F10" s="170" t="str">
+      <c r="F10" s="169" t="str">
         <f>FR_0700_002!B5</f>
         <v>Right Inlet</v>
       </c>
@@ -6387,7 +6432,7 @@
       <c r="G13" s="109"/>
       <c r="H13" s="111">
         <f t="shared" si="0"/>
-        <v>2.9</v>
+        <v>1.0759419618832944</v>
       </c>
       <c r="I13" s="112">
         <f>FR_A0700_q*FR_0700_005_q</f>
@@ -6395,11 +6440,11 @@
       </c>
       <c r="J13" s="113">
         <f>FR_0700_005_m</f>
-        <v>2.25</v>
+        <v>1.6141961883294399E-2</v>
       </c>
       <c r="K13" s="113">
         <f>FR_0700_005_p</f>
-        <v>0.65</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="L13" s="113">
         <v>0</v>
@@ -6409,7 +6454,7 @@
       </c>
       <c r="N13" s="114">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>2.1518839237665888</v>
       </c>
       <c r="O13" s="115"/>
     </row>
@@ -6437,7 +6482,7 @@
       <c r="G14" s="109"/>
       <c r="H14" s="111">
         <f t="shared" si="0"/>
-        <v>2.9</v>
+        <v>1.0788162660645444</v>
       </c>
       <c r="I14" s="112">
         <f>FR_A0700_q*FR_0700_006_q</f>
@@ -6445,11 +6490,11 @@
       </c>
       <c r="J14" s="113">
         <f>FR_0700_006_m</f>
-        <v>2.25</v>
+        <v>2.2616266064544401E-2</v>
       </c>
       <c r="K14" s="113">
         <f>FR_0700_006_p</f>
-        <v>0.65</v>
+        <v>1.0562</v>
       </c>
       <c r="L14" s="113">
         <v>0</v>
@@ -6459,7 +6504,7 @@
       </c>
       <c r="N14" s="114">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>2.1576325321290888</v>
       </c>
       <c r="O14" s="115"/>
     </row>
@@ -6487,7 +6532,7 @@
       <c r="G15" s="117"/>
       <c r="H15" s="111">
         <f t="shared" si="0"/>
-        <v>2.5750000000000002</v>
+        <v>0.73773216315204448</v>
       </c>
       <c r="I15" s="112">
         <f>FR_A0700_q*FR_0700_007_q</f>
@@ -6495,11 +6540,11 @@
       </c>
       <c r="J15" s="113">
         <f>FR_0700_007_m</f>
-        <v>2.25</v>
+        <v>1.6732163152044403E-2</v>
       </c>
       <c r="K15" s="113">
         <f>FR_0700_007_p</f>
-        <v>0.32500000000000001</v>
+        <v>0.72100000000000009</v>
       </c>
       <c r="L15" s="113">
         <v>0</v>
@@ -6509,46 +6554,46 @@
       </c>
       <c r="N15" s="114">
         <f t="shared" si="1"/>
-        <v>10.3</v>
+        <v>2.9509286526081779</v>
       </c>
       <c r="O15" s="115"/>
     </row>
     <row r="16" spans="1:15" s="7" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164" t="str">
+      <c r="A16" s="162"/>
+      <c r="B16" s="163" t="str">
         <f>'FR A0700'!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="164" t="s">
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="165"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168">
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="167">
         <f>SUMPRODUCT($I7:$I15,J7:J15)</f>
-        <v>22.284157248</v>
-      </c>
-      <c r="K16" s="168">
+        <v>16.089102526503851</v>
+      </c>
+      <c r="K16" s="167">
         <f>SUMPRODUCT($I7:$I15,K7:K15)</f>
-        <v>32.586199999999998</v>
-      </c>
-      <c r="L16" s="168">
+        <v>26.319662589250001</v>
+      </c>
+      <c r="L16" s="167">
         <f>SUMPRODUCT($I7:$I15,L7:L15)</f>
-        <v>1.1008896327558189</v>
-      </c>
-      <c r="M16" s="168">
+        <v>0</v>
+      </c>
+      <c r="M16" s="167">
         <f>SUMPRODUCT($I7:$I15,M7:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="168">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N16" s="167">
         <f>SUM(N7:N15)</f>
-        <v>55.971246880755814</v>
-      </c>
-      <c r="O16" s="169"/>
+        <v>45.07543178242053</v>
+      </c>
+      <c r="O16" s="168"/>
     </row>
     <row r="17" spans="1:14" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -8797,9 +8842,11 @@
     <tabColor rgb="FFFF66CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8863,7 +8910,7 @@
       </c>
       <c r="N2" s="89">
         <f>FR_A0700_pa+FR_A0700_m+FR_A0700_p+FR_A0700_f+FR_A0700_t</f>
-        <v>55.971246880755807</v>
+        <v>45.075431782420516</v>
       </c>
       <c r="O2" s="60"/>
     </row>
@@ -8897,7 +8944,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -8920,7 +8967,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -8939,7 +8986,7 @@
       </c>
       <c r="N5" s="72">
         <f>N2*N3</f>
-        <v>55.971246880755807</v>
+        <v>45.075431782420516</v>
       </c>
       <c r="O5" s="60"/>
     </row>
@@ -8971,7 +9018,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -9032,17 +9079,17 @@
       <c r="O9" s="60"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="160">
         <v>10</v>
       </c>
-      <c r="B10" s="194" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="195">
+      <c r="B10" s="188" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="189">
         <f>FR_0700_000!N2</f>
         <v>3.10793344</v>
       </c>
-      <c r="D10" s="160">
+      <c r="D10" s="159">
         <f>FR_0700_000_q</f>
         <v>1</v>
       </c>
@@ -9050,7 +9097,9 @@
         <f>C10*D10</f>
         <v>3.10793344</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="54" t="s">
+        <v>214</v>
+      </c>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
@@ -9062,13 +9111,13 @@
       <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="188">
+      <c r="A11" s="182">
         <v>20</v>
       </c>
-      <c r="B11" s="199" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="189">
+      <c r="B11" s="193" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="183">
         <f>FR_0700_001!N2</f>
         <v>5.6870399999999997</v>
       </c>
@@ -9080,7 +9129,9 @@
         <f t="shared" ref="E11:E17" si="0">C11*D11</f>
         <v>5.6870399999999997</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="55" t="s">
+        <v>214</v>
+      </c>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
@@ -9092,13 +9143,13 @@
       <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="188">
+      <c r="A12" s="182">
         <v>30</v>
       </c>
-      <c r="B12" s="199" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="189">
+      <c r="B12" s="193" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="183">
         <f>FR_0700_002!N2</f>
         <v>4.8410399999999996</v>
       </c>
@@ -9110,7 +9161,9 @@
         <f t="shared" si="0"/>
         <v>4.8410399999999996</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="55" t="s">
+        <v>214</v>
+      </c>
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
@@ -9122,13 +9175,13 @@
       <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="196">
+      <c r="A13" s="190">
         <v>40</v>
       </c>
-      <c r="B13" s="197" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="198">
+      <c r="B13" s="191" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="192">
         <f>FR_0700_003!N2</f>
         <v>2.1023579199999998</v>
       </c>
@@ -9140,7 +9193,9 @@
         <f t="shared" si="0"/>
         <v>4.2047158399999995</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="55" t="s">
+        <v>214</v>
+      </c>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -9155,8 +9210,8 @@
       <c r="A14" s="14">
         <v>50</v>
       </c>
-      <c r="B14" s="158" t="s">
-        <v>206</v>
+      <c r="B14" s="157" t="s">
+        <v>201</v>
       </c>
       <c r="C14" s="128">
         <f>FR_0700_004!N2</f>
@@ -9170,7 +9225,9 @@
         <f t="shared" si="0"/>
         <v>4.0346279679999997</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="55" t="s">
+        <v>214</v>
+      </c>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
@@ -9185,12 +9242,12 @@
       <c r="A15" s="14">
         <v>60</v>
       </c>
-      <c r="B15" s="158" t="s">
-        <v>188</v>
+      <c r="B15" s="157" t="s">
+        <v>183</v>
       </c>
       <c r="C15" s="128">
         <f>FR_0700_005!N2</f>
-        <v>2.9</v>
+        <v>1.0759419618832944</v>
       </c>
       <c r="D15" s="71">
         <f>FR_0700_005_q</f>
@@ -9198,7 +9255,7 @@
       </c>
       <c r="E15" s="72">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>2.1518839237665888</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
@@ -9215,12 +9272,12 @@
       <c r="A16" s="14">
         <v>70</v>
       </c>
-      <c r="B16" s="158" t="s">
-        <v>191</v>
+      <c r="B16" s="157" t="s">
+        <v>186</v>
       </c>
       <c r="C16" s="128">
         <f>FR_0700_006!N2</f>
-        <v>2.9</v>
+        <v>1.0788162660645444</v>
       </c>
       <c r="D16" s="71">
         <f>FR_0700_006_q</f>
@@ -9228,7 +9285,7 @@
       </c>
       <c r="E16" s="72">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>2.1576325321290888</v>
       </c>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
@@ -9245,12 +9302,12 @@
       <c r="A17" s="14">
         <v>80</v>
       </c>
-      <c r="B17" s="158" t="s">
-        <v>210</v>
+      <c r="B17" s="157" t="s">
+        <v>203</v>
       </c>
       <c r="C17" s="128">
         <f>FR_0700_007!N2</f>
-        <v>2.5750000000000002</v>
+        <v>0.73773216315204448</v>
       </c>
       <c r="D17" s="71">
         <f>FR_0700_007_q</f>
@@ -9258,7 +9315,7 @@
       </c>
       <c r="E17" s="72">
         <f t="shared" si="0"/>
-        <v>10.3</v>
+        <v>2.9509286526081779</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
@@ -9280,7 +9337,7 @@
       </c>
       <c r="E18" s="93">
         <f>SUM(E10:E17)</f>
-        <v>43.775357247999992</v>
+        <v>29.135802356503852</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
@@ -9356,67 +9413,80 @@
       <c r="O20" s="60"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="135">
+      <c r="A21" s="160">
         <v>10</v>
       </c>
-      <c r="B21" s="182" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="136">
+      <c r="B21" s="181" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="160" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="194">
+        <v>10</v>
+      </c>
+      <c r="E21" s="200">
+        <f>0.001367374+2*0.001404596+0.001873451</f>
+        <v>6.0500169999999995E-3</v>
+      </c>
+      <c r="F21" s="160" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="160"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="199">
+        <f>E21</f>
+        <v>6.0500169999999995E-3</v>
+      </c>
+      <c r="N21" s="135">
         <f t="shared" ref="N21:N22" si="1">M21*D21</f>
-        <v>0</v>
+        <v>6.0500169999999992E-2</v>
       </c>
       <c r="O21" s="60"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="188">
+      <c r="A22" s="182">
         <v>20</v>
       </c>
-      <c r="B22" s="180" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="188" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="189">
+      <c r="B22" s="179" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="182" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="183">
         <v>10</v>
       </c>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="188"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="190">
+      <c r="E22" s="182">
+        <f>(1.38+0.47*2)/2</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F22" s="182" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="182"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="184">
         <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="136">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N22" s="135">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="O22" s="60"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="66"/>
-      <c r="B23" s="21" t="s">
-        <v>209</v>
-      </c>
+      <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -9427,12 +9497,12 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="181" t="s">
+      <c r="M23" s="180" t="s">
         <v>18</v>
       </c>
       <c r="N23" s="96">
-        <f>SUM(N21:N21)</f>
-        <v>0</v>
+        <f>SUM(N21:N22)</f>
+        <v>11.660500169999999</v>
       </c>
       <c r="O23" s="60"/>
     </row>
@@ -9496,7 +9566,7 @@
         <v>138</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="D26" s="72">
         <v>0.15</v>
@@ -9505,14 +9575,14 @@
         <v>47</v>
       </c>
       <c r="F26" s="73">
-        <f>2.7*8+1.8*8</f>
-        <v>36</v>
+        <f>2*(2.769+2.5)</f>
+        <v>10.538</v>
       </c>
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
       <c r="I26" s="72">
-        <f t="shared" ref="I26:I31" si="2">IF(H26="",D26*F26,D26*F26*H26)</f>
-        <v>5.3999999999999995</v>
+        <f t="shared" ref="I26:I30" si="2">IF(H26="",D26*F26,D26*F26*H26)</f>
+        <v>1.5807</v>
       </c>
       <c r="J26" s="54"/>
       <c r="K26" s="54"/>
@@ -9523,29 +9593,29 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="71">
-        <v>20</v>
-      </c>
-      <c r="B27" s="71" t="s">
-        <v>138</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="137" t="s">
+        <v>142</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D27" s="72">
-        <v>0.15</v>
-      </c>
-      <c r="E27" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="73">
-        <f>2*2.1</f>
-        <v>4.2</v>
-      </c>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="72">
+        <v>5.25</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="209">
+        <f>E21</f>
+        <v>6.0500169999999995E-3</v>
+      </c>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="208">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>3.1762589250000001E-2</v>
       </c>
       <c r="J27" s="54"/>
       <c r="K27" s="54"/>
@@ -9556,29 +9626,22 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="71">
-        <v>30</v>
-      </c>
-      <c r="B28" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>147</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="71"/>
       <c r="D28" s="72">
-        <v>5.25</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="73">
-        <f>0.02*9</f>
-        <v>0.18</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="E28" s="71"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="71"/>
       <c r="H28" s="71"/>
       <c r="I28" s="72">
         <f t="shared" si="2"/>
-        <v>0.94499999999999995</v>
+        <v>0</v>
       </c>
       <c r="J28" s="54"/>
       <c r="K28" s="54"/>
@@ -9589,26 +9652,22 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="71">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="71" t="s">
         <v>141</v>
       </c>
+      <c r="C29" s="71"/>
       <c r="D29" s="72">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E29" s="71"/>
-      <c r="F29" s="73">
-        <v>2</v>
-      </c>
+      <c r="F29" s="73"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
       <c r="I29" s="72">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J29" s="54"/>
       <c r="K29" s="54"/>
@@ -9619,26 +9678,22 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="71">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>142</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C30" s="71"/>
       <c r="D30" s="72">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E30" s="71"/>
-      <c r="F30" s="73">
-        <v>4</v>
-      </c>
+      <c r="F30" s="73"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
       <c r="I30" s="72">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="54"/>
       <c r="K30" s="54"/>
@@ -9648,27 +9703,19 @@
       <c r="O30" s="60"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="71">
-        <v>60</v>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="73">
-        <v>4</v>
-      </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="A31" s="66"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="93">
+        <f>SUM(I26:I30)</f>
+        <v>1.61246258925</v>
       </c>
       <c r="J31" s="54"/>
       <c r="K31" s="54"/>
@@ -9678,20 +9725,15 @@
       <c r="O31" s="60"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="93">
-        <f>SUM(I26:I31)</f>
-        <v>11.094999999999999</v>
-      </c>
+      <c r="A32" s="61"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="54"/>
       <c r="K32" s="54"/>
       <c r="L32" s="54"/>
@@ -9700,231 +9742,247 @@
       <c r="O32" s="60"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+      <c r="A33" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="91" t="s">
+        <v>18</v>
+      </c>
       <c r="K33" s="54"/>
       <c r="L33" s="54"/>
       <c r="M33" s="54"/>
       <c r="N33" s="54"/>
       <c r="O33" s="60"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="91" t="s">
+    <row r="34" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="142">
+        <v>10</v>
+      </c>
+      <c r="B34" s="142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="142"/>
+      <c r="D34" s="72">
+        <f>0.8/105154*E34^2*G34*SQRT(G34)+(0.003*EXP(0.319*E34))</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="142"/>
+      <c r="J34" s="141">
+        <f t="shared" ref="J34:J39" si="3">I34*D34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="139"/>
+    </row>
+    <row r="35" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="142">
         <v>20</v>
       </c>
-      <c r="D34" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="91" t="s">
+      <c r="B35" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="142"/>
+      <c r="D35" s="72">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="141">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="139"/>
+    </row>
+    <row r="36" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="201">
+        <v>30</v>
+      </c>
+      <c r="B36" s="201" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="201"/>
+      <c r="D36" s="135">
+        <f>(0.009*EXP(0.2*E36))</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="201"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
+      <c r="J36" s="202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="139"/>
+    </row>
+    <row r="37" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="142">
+        <v>40</v>
+      </c>
+      <c r="B37" s="203" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="203" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="183">
+        <f>(0.001*E37^2*G37+14)</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="E37" s="203">
+        <v>8</v>
+      </c>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203">
+        <v>40</v>
+      </c>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203">
+        <v>4</v>
+      </c>
+      <c r="J37" s="204">
+        <f t="shared" si="3"/>
+        <v>66.239999999999995</v>
+      </c>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="139"/>
+    </row>
+    <row r="38" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="142">
+        <v>50</v>
+      </c>
+      <c r="B38" s="205" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="206" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="207">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E38" s="205">
+        <v>2000</v>
+      </c>
+      <c r="F38" s="203" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" s="203"/>
+      <c r="H38" s="203"/>
+      <c r="I38" s="203">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="204">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="139"/>
+    </row>
+    <row r="39" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="201">
+        <v>60</v>
+      </c>
+      <c r="B39" s="205" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="206" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="207">
+        <v>2E-3</v>
+      </c>
+      <c r="E39" s="205">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="203" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="203"/>
+      <c r="H39" s="203"/>
+      <c r="I39" s="203">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="204">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="139"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="66"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="60"/>
-    </row>
-    <row r="35" spans="1:15" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="143">
-        <v>10</v>
-      </c>
-      <c r="B35" s="143" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="72">
-        <f>0.8/105154*E35^2*G35*SQRT(G35)+(0.003*EXP(0.319*E35))</f>
-        <v>0.2106451163693987</v>
-      </c>
-      <c r="E35" s="143">
-        <v>8</v>
-      </c>
-      <c r="F35" s="143" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="143">
-        <v>50</v>
-      </c>
-      <c r="H35" s="143" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="143">
-        <v>4</v>
-      </c>
-      <c r="J35" s="142">
-        <f t="shared" ref="J35:J37" si="3">I35*D35</f>
-        <v>0.8425804654775948</v>
-      </c>
-      <c r="K35" s="139"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="139"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="140"/>
-    </row>
-    <row r="36" spans="1:15" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="143">
-        <v>20</v>
-      </c>
-      <c r="B36" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="72">
-        <v>0.01</v>
-      </c>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143">
-        <v>8</v>
-      </c>
-      <c r="J36" s="142">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
-      </c>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="140"/>
-    </row>
-    <row r="37" spans="1:15" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="143">
-        <v>30</v>
-      </c>
-      <c r="B37" s="143" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="72">
-        <f>(0.009*EXP(0.2*E37))</f>
-        <v>4.4577291819556032E-2</v>
-      </c>
-      <c r="E37" s="143">
-        <v>8</v>
-      </c>
-      <c r="F37" s="143" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143">
-        <v>4</v>
-      </c>
-      <c r="J37" s="142">
-        <f t="shared" si="3"/>
-        <v>0.17830916727822413</v>
-      </c>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="140"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="93">
-        <f>SUM(J35:J37)</f>
-        <v>1.1008896327558189</v>
-      </c>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="60"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="60"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="21"/>
+      <c r="J40" s="96">
+        <f>SUM(J34:J36)</f>
+        <v>0</v>
+      </c>
       <c r="K40" s="54"/>
       <c r="L40" s="54"/>
       <c r="M40" s="54"/>
@@ -9932,33 +9990,16 @@
       <c r="O40" s="60"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="71">
-        <v>10</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="72">
-        <v>500</v>
-      </c>
-      <c r="E41" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71">
-        <v>3000</v>
-      </c>
-      <c r="H41" s="71">
-        <v>1</v>
-      </c>
-      <c r="I41" s="72">
-        <f>D41*F41/G41*H41</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="21"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="54"/>
       <c r="L41" s="54"/>
       <c r="M41" s="54"/>
@@ -9966,19 +10007,32 @@
       <c r="O41" s="60"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="95" t="s">
+      <c r="A42" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="91" t="s">
         <v>18</v>
-      </c>
-      <c r="I42" s="96">
-        <f>SUM(I41:I41)</f>
-        <v>0</v>
       </c>
       <c r="J42" s="21"/>
       <c r="K42" s="54"/>
@@ -9987,38 +10041,96 @@
       <c r="N42" s="54"/>
       <c r="O42" s="60"/>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="70"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="71">
+        <v>10</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="72">
+        <v>500</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="71">
+        <v>16</v>
+      </c>
+      <c r="G43" s="71">
+        <v>3000</v>
+      </c>
+      <c r="H43" s="71">
+        <v>1</v>
+      </c>
+      <c r="I43" s="72">
+        <f>D43*F43/G43*H43</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="60"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="96">
+        <f>SUM(I43:I43)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J44" s="21"/>
       <c r="K44" s="54"/>
       <c r="L44" s="54"/>
       <c r="M44" s="54"/>
       <c r="N44" s="54"/>
+      <c r="O44" s="60"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="68"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="70"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10037,7 +10149,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="16383" man="1"/>
+    <brk id="45" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -10178,7 +10290,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="118" t="s">
@@ -10208,7 +10320,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -10252,7 +10364,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -10335,7 +10447,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="29">
@@ -10346,7 +10458,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="157">
+      <c r="J11" s="156">
         <v>1.84E-4</v>
       </c>
       <c r="K11" s="18">
@@ -10442,7 +10554,7 @@
       <c r="A15" s="79">
         <v>10</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="30"/>
@@ -10452,7 +10564,7 @@
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="143">
         <v>1</v>
       </c>
       <c r="G15" s="30"/>
@@ -10472,23 +10584,23 @@
       <c r="A16" s="62">
         <v>20</v>
       </c>
-      <c r="B16" s="137" t="s">
-        <v>154</v>
+      <c r="B16" s="136" t="s">
+        <v>150</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D16" s="29">
         <v>0.04</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="145">
+        <v>151</v>
+      </c>
+      <c r="F16" s="144">
         <v>3.45</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H16" s="23">
         <v>1</v>
@@ -10508,8 +10620,8 @@
       <c r="A17" s="80">
         <v>30</v>
       </c>
-      <c r="B17" s="137" t="s">
-        <v>153</v>
+      <c r="B17" s="136" t="s">
+        <v>149</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="29">
@@ -10518,7 +10630,7 @@
       <c r="E17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="146">
+      <c r="F17" s="145">
         <v>1</v>
       </c>
       <c r="G17" s="23"/>
@@ -10538,23 +10650,23 @@
       <c r="A18" s="62">
         <v>40</v>
       </c>
-      <c r="B18" s="137" t="s">
-        <v>154</v>
+      <c r="B18" s="136" t="s">
+        <v>150</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18" s="29">
         <v>0.04</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="145">
+        <v>151</v>
+      </c>
+      <c r="F18" s="144">
         <v>4.54</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H18" s="23">
         <v>1</v>
@@ -10653,7 +10765,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10663,11 +10775,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="154" t="s">
-        <v>199</v>
+      <c r="B1" s="153" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -10810,7 +10922,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="118" t="s">
@@ -10840,7 +10952,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -10884,7 +10996,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -10967,7 +11079,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="29">
@@ -11074,7 +11186,7 @@
       <c r="A15" s="79">
         <v>10</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="30"/>
@@ -11084,7 +11196,7 @@
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="150">
+      <c r="F15" s="149">
         <v>1</v>
       </c>
       <c r="G15" s="30"/>
@@ -11104,23 +11216,23 @@
       <c r="A16" s="62">
         <v>20</v>
       </c>
-      <c r="B16" s="137" t="s">
-        <v>154</v>
+      <c r="B16" s="136" t="s">
+        <v>150</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D16" s="29">
         <v>0.04</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="151">
+        <v>151</v>
+      </c>
+      <c r="F16" s="150">
         <v>18.3</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H16" s="23">
         <v>1</v>
@@ -11140,8 +11252,8 @@
       <c r="A17" s="79">
         <v>30</v>
       </c>
-      <c r="B17" s="137" t="s">
-        <v>153</v>
+      <c r="B17" s="136" t="s">
+        <v>149</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="29">
@@ -11150,7 +11262,7 @@
       <c r="E17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="152">
+      <c r="F17" s="151">
         <v>1</v>
       </c>
       <c r="G17" s="23"/>
@@ -11170,23 +11282,23 @@
       <c r="A18" s="62">
         <v>40</v>
       </c>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="D18" s="29">
         <v>0.04</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="151">
+        <v>151</v>
+      </c>
+      <c r="F18" s="150">
         <v>14.2</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H18" s="23">
         <v>1</v>
@@ -11206,21 +11318,21 @@
       <c r="A19" s="79">
         <v>50</v>
       </c>
-      <c r="B19" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="147"/>
+      <c r="B19" s="136" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="146"/>
       <c r="D19" s="29">
         <v>0.65</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="153">
+      <c r="F19" s="152">
         <v>1</v>
       </c>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
       <c r="I19" s="29">
         <f t="shared" si="0"/>
         <v>0.65</v>
@@ -11236,23 +11348,23 @@
       <c r="A20" s="62">
         <v>60</v>
       </c>
-      <c r="B20" s="137" t="s">
-        <v>154</v>
+      <c r="B20" s="136" t="s">
+        <v>150</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D20" s="29">
         <v>0.04</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="151">
+        <v>151</v>
+      </c>
+      <c r="F20" s="150">
         <v>16.2</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H20" s="23">
         <v>1</v>
@@ -11334,11 +11446,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="154" t="s">
-        <v>198</v>
+      <c r="A1" s="140" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="153" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -11478,7 +11590,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="118" t="s">
@@ -11508,7 +11620,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -11552,7 +11664,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -11635,7 +11747,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="29">
@@ -11742,7 +11854,7 @@
       <c r="A15" s="79">
         <v>10</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="30"/>
@@ -11752,7 +11864,7 @@
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="150">
+      <c r="F15" s="149">
         <v>1</v>
       </c>
       <c r="G15" s="30"/>
@@ -11772,23 +11884,23 @@
       <c r="A16" s="62">
         <v>20</v>
       </c>
-      <c r="B16" s="137" t="s">
-        <v>154</v>
+      <c r="B16" s="136" t="s">
+        <v>150</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D16" s="29">
         <v>0.04</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="151">
+        <v>151</v>
+      </c>
+      <c r="F16" s="150">
         <v>43.6</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H16" s="23">
         <v>1</v>
@@ -11808,8 +11920,8 @@
       <c r="A17" s="79">
         <v>30</v>
       </c>
-      <c r="B17" s="137" t="s">
-        <v>153</v>
+      <c r="B17" s="136" t="s">
+        <v>149</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="29">
@@ -11818,7 +11930,7 @@
       <c r="E17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="152">
+      <c r="F17" s="151">
         <v>1</v>
       </c>
       <c r="G17" s="23"/>
@@ -11838,23 +11950,23 @@
       <c r="A18" s="62">
         <v>40</v>
       </c>
-      <c r="B18" s="137" t="s">
-        <v>154</v>
+      <c r="B18" s="136" t="s">
+        <v>150</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D18" s="29">
         <v>0.04</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="151">
+        <v>151</v>
+      </c>
+      <c r="F18" s="150">
         <v>0.2</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H18" s="23">
         <v>1</v>
@@ -11933,10 +12045,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/FR - Frame & Body/Cost/FR_A0700.xlsx
+++ b/FR - Frame & Body/Cost/FR_A0700.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github\FR - Frame &amp; Body\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CDC83802-8BF1-407C-85A5-7F4EDCB44E87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FE72492D-A8D9-4782-803B-428D00520946}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="211">
   <si>
     <t>University</t>
   </si>
@@ -847,27 +847,31 @@
   <si>
     <t>Carbon Fiber, 1 Ply (kg)</t>
   </si>
+  <si>
+    <t>kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.000000"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;?????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1583,12 +1587,12 @@
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="6">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="6">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1597,13 +1601,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1658,14 +1662,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1725,8 +1729,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1749,18 +1753,18 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,18 +1786,18 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="170" fontId="11" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1849,13 +1853,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1867,14 +1871,14 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1892,7 +1896,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1905,10 +1909,10 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1917,14 +1921,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,16 +1957,17 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3145,12 +3150,14 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.21875" customWidth="1"/>
@@ -3430,8 +3437,13 @@
       <c r="D11" s="28">
         <v>100</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="214">
+        <f>J11*K11*L11</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
@@ -3466,8 +3478,13 @@
       <c r="D12" s="208">
         <v>200</v>
       </c>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
+      <c r="E12" s="214">
+        <f>J12*K12*L12</f>
+        <v>2.8800000000000003E-2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G12" s="206"/>
       <c r="H12" s="209"/>
       <c r="I12" s="210"/>
@@ -3814,12 +3831,14 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.21875" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.21875" customWidth="1"/>
@@ -4099,8 +4118,13 @@
       <c r="D11" s="208">
         <v>100</v>
       </c>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
+      <c r="E11" s="214">
+        <f>J11*K11*L11</f>
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="206"/>
       <c r="H11" s="209"/>
       <c r="I11" s="210"/>
@@ -4135,8 +4159,13 @@
       <c r="D12" s="208">
         <v>200</v>
       </c>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
+      <c r="E12" s="214">
+        <f>J12*K12*L12</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G12" s="206"/>
       <c r="H12" s="209"/>
       <c r="I12" s="210"/>
@@ -4480,11 +4509,14 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -4762,8 +4794,13 @@
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="214">
+        <f>J11*K11*L11</f>
+        <v>7.1742052814641778E-3</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
@@ -5015,11 +5052,14 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.21875" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
@@ -5296,8 +5336,13 @@
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="214">
+        <f>J11*K11*L11</f>
+        <v>1.0051673806464177E-2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
@@ -5549,11 +5594,14 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -5831,8 +5879,13 @@
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="214">
+        <f>J11*K11*L11</f>
+        <v>7.4365169564641785E-3</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
@@ -6054,7 +6107,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -8946,8 +8999,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10254,8 +10307,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10547,8 +10600,13 @@
       <c r="D11" s="28">
         <v>100</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="214">
+        <f>J11*K11*L11</f>
+        <v>0.41400000000000003</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
@@ -11047,7 +11105,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11055,6 +11113,7 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.21875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.21875" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
   </cols>
@@ -11332,8 +11391,13 @@
       <c r="D11" s="28">
         <v>100</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="214">
+        <f>J11*K11*L11</f>
+        <v>0.14100000000000001</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
@@ -11713,12 +11777,13 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
   </cols>
@@ -11996,8 +12061,13 @@
       <c r="D11" s="28">
         <v>100</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="214">
+        <f>J11*K11*L11</f>
+        <v>0.14100000000000001</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>

--- a/FR - Frame & Body/Cost/FR_A0700.xlsx
+++ b/FR - Frame & Body/Cost/FR_A0700.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github\FR - Frame &amp; Body\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FE72492D-A8D9-4782-803B-428D00520946}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{987C92F2-9095-4197-ABE8-1E8E0BA330EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -113,12 +113,12 @@
     <definedName name="FR_0700_007_p">FR_0700_007!$I$17</definedName>
     <definedName name="FR_0700_007_q">FR_0700_007!$N$3</definedName>
     <definedName name="FR_A0700">'FR A0700'!$B$5</definedName>
-    <definedName name="FR_A0700_f">'FR A0700'!$J$40</definedName>
+    <definedName name="FR_A0700_f">'FR A0700'!$J$52</definedName>
     <definedName name="FR_A0700_m">'FR A0700'!$N$23</definedName>
-    <definedName name="FR_A0700_p">'FR A0700'!$I$31</definedName>
+    <definedName name="FR_A0700_p">'FR A0700'!$I$43</definedName>
     <definedName name="FR_A0700_pa">'FR A0700'!$E$18</definedName>
     <definedName name="FR_A0700_q">'FR A0700'!$N$3</definedName>
-    <definedName name="FR_A0700_t">'FR A0700'!$I$44</definedName>
+    <definedName name="FR_A0700_t">'FR A0700'!$I$56</definedName>
     <definedName name="gbvf">#REF!</definedName>
     <definedName name="gbvfcd">#REF!</definedName>
     <definedName name="gr">#REF!</definedName>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="228">
   <si>
     <t>University</t>
   </si>
@@ -849,6 +849,57 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>Positioning the Pin (Quick Release) on the nose</t>
+  </si>
+  <si>
+    <t>Hand, Loose &gt; 25.4 mm</t>
+  </si>
+  <si>
+    <t>Fixing the Pin (Quick Release) to the nose</t>
+  </si>
+  <si>
+    <t>Positioning the bolt of the Pin (Quick Release) on the Nose Brackets</t>
+  </si>
+  <si>
+    <t>Fixing the bolt of the Pin (Quick Release) to the Nose Brackets</t>
+  </si>
+  <si>
+    <t>Assemble, 5 kg, Loose</t>
+  </si>
+  <si>
+    <t>Positioning the nose on the chassis</t>
+  </si>
+  <si>
+    <t>Assemble, 3 kg, Loose</t>
+  </si>
+  <si>
+    <t>Fixing the Right Inlet to the Brackets and the Floor Pan</t>
+  </si>
+  <si>
+    <t>Positioning the Left Inlet on the Brackets</t>
+  </si>
+  <si>
+    <t>Fixing the Left Inlet to the Brackets and the Floor Pan</t>
+  </si>
+  <si>
+    <t>Positioning the Right Inlet on the Brackets and the Floor Pan</t>
+  </si>
+  <si>
+    <t>Both sides</t>
+  </si>
+  <si>
+    <t>Fixing the Velcro to the Frame</t>
+  </si>
+  <si>
+    <t>Fixing the Velcro to the side plates</t>
+  </si>
+  <si>
+    <t>Fixing the Side Plate to the Chassis</t>
+  </si>
+  <si>
+    <t>Fixing the Inlets to the Brackets</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1583,6 +1634,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1601,7 +1693,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1706,10 +1798,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1841,9 +1929,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1920,14 +2005,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="25" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1968,6 +2048,26 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="38" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="38" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2805,15 +2905,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="77" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2843,7 +2943,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="77" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2873,13 +2973,13 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="77"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2892,10 +2992,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="77" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2930,7 +3030,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="77" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2960,10 +3060,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="77" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2983,10 +3083,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="77" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3031,10 +3131,10 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="77" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3054,10 +3154,10 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="82" t="s">
+      <c r="A63" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="77" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3127,12 +3227,12 @@
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="77" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="81" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3182,7 +3282,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3197,14 +3297,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="71">
@@ -3214,7 +3314,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -3222,10 +3322,10 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="53"/>
@@ -3235,24 +3335,24 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>2</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="78" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -3260,7 +3360,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -3270,14 +3370,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -3285,12 +3385,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="116" t="s">
+      <c r="M5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
@@ -3300,7 +3400,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -3313,7 +3413,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -3323,7 +3423,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3344,7 +3444,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3365,7 +3465,7 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -3382,52 +3482,52 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="119" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -3437,7 +3537,7 @@
       <c r="D11" s="28">
         <v>100</v>
       </c>
-      <c r="E11" s="214">
+      <c r="E11" s="208">
         <f>J11*K11*L11</f>
         <v>7.2000000000000008E-2</v>
       </c>
@@ -3447,11 +3547,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="88">
+      <c r="J11" s="86">
         <f>0.45*0.8</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="K11" s="189">
+      <c r="K11" s="183">
         <f>0.2/L11</f>
         <v>9.0909090909090917E-5</v>
       </c>
@@ -3468,41 +3568,41 @@
       <c r="O11" s="64"/>
     </row>
     <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206">
+      <c r="A12" s="200">
         <v>20</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="208">
+      <c r="C12" s="200"/>
+      <c r="D12" s="202">
         <v>200</v>
       </c>
-      <c r="E12" s="214">
+      <c r="E12" s="208">
         <f>J12*K12*L12</f>
         <v>2.8800000000000003E-2</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="206"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="88">
+      <c r="G12" s="200"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="86">
         <f>0.45*0.8</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="K12" s="212">
+      <c r="K12" s="206">
         <f>0.08/L12</f>
         <v>5.0632911392405066E-5</v>
       </c>
-      <c r="L12" s="213">
+      <c r="L12" s="207">
         <v>1580</v>
       </c>
-      <c r="M12" s="205">
+      <c r="M12" s="199">
         <v>1</v>
       </c>
-      <c r="N12" s="208">
+      <c r="N12" s="202">
         <f>IF(J12="",D12*M12,D12*J12*K12*L12*M12)</f>
         <v>5.7600000000000016</v>
       </c>
@@ -3521,10 +3621,10 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="122" t="s">
+      <c r="M13" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="123">
+      <c r="N13" s="121">
         <f>SUM(N11:N12)</f>
         <v>12.960000000000004</v>
       </c>
@@ -3548,31 +3648,31 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="121" t="s">
+      <c r="E15" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="121" t="s">
+      <c r="F15" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="121" t="s">
+      <c r="G15" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="121" t="s">
+      <c r="H15" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="121" t="s">
+      <c r="I15" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="20"/>
@@ -3583,58 +3683,58 @@
       <c r="O15" s="59"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="195">
+      <c r="A16" s="189">
         <v>10</v>
       </c>
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195">
+      <c r="C16" s="189"/>
+      <c r="D16" s="189">
         <v>0.06</v>
       </c>
-      <c r="E16" s="195" t="s">
+      <c r="E16" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="195">
+      <c r="F16" s="189">
         <v>258.60000000000002</v>
       </c>
-      <c r="G16" s="196" t="s">
+      <c r="G16" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="195">
+      <c r="H16" s="189">
         <v>2</v>
       </c>
-      <c r="I16" s="197">
+      <c r="I16" s="191">
         <f>IF(H16="",D16*F16,D16*F16*H16)</f>
         <v>31.032</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196">
+      <c r="A17" s="190">
         <v>20</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197">
+      <c r="C17" s="190"/>
+      <c r="D17" s="191">
         <v>35</v>
       </c>
-      <c r="E17" s="199" t="s">
+      <c r="E17" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="194">
         <f>J11</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="G17" s="196" t="s">
+      <c r="G17" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="196">
+      <c r="H17" s="190">
         <v>2</v>
       </c>
-      <c r="I17" s="197">
+      <c r="I17" s="191">
         <f>IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>25.200000000000003</v>
       </c>
@@ -3646,30 +3746,30 @@
       <c r="O17" s="66"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="195">
+      <c r="A18" s="189">
         <v>30</v>
       </c>
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="201">
+      <c r="C18" s="189"/>
+      <c r="D18" s="195">
         <v>5</v>
       </c>
-      <c r="E18" s="195" t="s">
+      <c r="E18" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="200">
+      <c r="F18" s="194">
         <f>J11</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="G18" s="196" t="s">
+      <c r="G18" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="195">
+      <c r="H18" s="189">
         <v>2</v>
       </c>
-      <c r="I18" s="201">
+      <c r="I18" s="195">
         <f t="shared" ref="I18:I20" si="0">IF(H18="",D18*F18,D18*F18*H18)</f>
         <v>3.6000000000000005</v>
       </c>
@@ -3681,26 +3781,26 @@
       <c r="O18" s="59"/>
     </row>
     <row r="19" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196">
+      <c r="A19" s="190">
         <v>40</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="195"/>
-      <c r="D19" s="201">
+      <c r="C19" s="189"/>
+      <c r="D19" s="195">
         <v>10</v>
       </c>
-      <c r="E19" s="199" t="s">
+      <c r="E19" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="202">
+      <c r="F19" s="196">
         <f>J11</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="G19" s="195"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="201">
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="195">
         <f t="shared" si="0"/>
         <v>3.6000000000000005</v>
       </c>
@@ -3712,29 +3812,29 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="195">
+      <c r="A20" s="189">
         <v>50</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="201">
+      <c r="C20" s="189"/>
+      <c r="D20" s="195">
         <v>0.01</v>
       </c>
-      <c r="E20" s="195" t="s">
+      <c r="E20" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="195">
+      <c r="F20" s="189">
         <v>258.60000000000002</v>
       </c>
-      <c r="G20" s="199" t="s">
+      <c r="G20" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="H20" s="195">
+      <c r="H20" s="189">
         <v>2</v>
       </c>
-      <c r="I20" s="201">
+      <c r="I20" s="195">
         <f t="shared" si="0"/>
         <v>5.1720000000000006</v>
       </c>
@@ -3753,10 +3853,10 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="125" t="s">
+      <c r="H21" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="121">
         <f>SUM(I16:I20)</f>
         <v>68.603999999999999</v>
       </c>
@@ -3810,7 +3910,7 @@
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3863,7 +3963,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3878,14 +3978,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="71">
@@ -3895,7 +3995,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -3903,10 +4003,10 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="53"/>
@@ -3916,24 +4016,24 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>2</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="78" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -3941,7 +4041,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -3951,14 +4051,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -3966,12 +4066,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="116" t="s">
+      <c r="M5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
@@ -3981,7 +4081,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -3994,7 +4094,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -4004,7 +4104,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4025,7 +4125,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4046,7 +4146,7 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4063,127 +4163,127 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="119" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="206">
+      <c r="A11" s="200">
         <v>10</v>
       </c>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="201" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="206"/>
-      <c r="D11" s="208">
+      <c r="C11" s="200"/>
+      <c r="D11" s="202">
         <v>100</v>
       </c>
-      <c r="E11" s="214">
+      <c r="E11" s="208">
         <f>J11*K11*L11</f>
         <v>0.15</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="206"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="211">
+      <c r="G11" s="200"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="205">
         <f>0.75*1</f>
         <v>0.75</v>
       </c>
-      <c r="K11" s="212">
+      <c r="K11" s="206">
         <f>0.2/L11</f>
         <v>9.0909090909090917E-5</v>
       </c>
-      <c r="L11" s="213">
+      <c r="L11" s="207">
         <v>2200</v>
       </c>
-      <c r="M11" s="205">
+      <c r="M11" s="199">
         <v>1</v>
       </c>
-      <c r="N11" s="208">
+      <c r="N11" s="202">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
         <v>15.000000000000002</v>
       </c>
       <c r="O11" s="64"/>
     </row>
     <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206">
+      <c r="A12" s="200">
         <v>20</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="208">
+      <c r="C12" s="200"/>
+      <c r="D12" s="202">
         <v>200</v>
       </c>
-      <c r="E12" s="214">
+      <c r="E12" s="208">
         <f>J12*K12*L12</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="206"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="211">
+      <c r="G12" s="200"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="205">
         <f>0.75*1</f>
         <v>0.75</v>
       </c>
-      <c r="K12" s="212">
+      <c r="K12" s="206">
         <f>0.08/L12</f>
         <v>5.0632911392405066E-5</v>
       </c>
-      <c r="L12" s="213">
+      <c r="L12" s="207">
         <v>1580</v>
       </c>
-      <c r="M12" s="205">
+      <c r="M12" s="199">
         <v>1</v>
       </c>
-      <c r="N12" s="208">
+      <c r="N12" s="202">
         <f>IF(J12="",D12*M12,D12*J12*K12*L12*M12)</f>
         <v>12.000000000000002</v>
       </c>
@@ -4202,10 +4302,10 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="125" t="s">
+      <c r="M13" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="123">
+      <c r="N13" s="121">
         <f>SUM(N11:N12)</f>
         <v>27.000000000000004</v>
       </c>
@@ -4229,31 +4329,31 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="121" t="s">
+      <c r="E15" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="121" t="s">
+      <c r="F15" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="121" t="s">
+      <c r="G15" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="121" t="s">
+      <c r="H15" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="121" t="s">
+      <c r="I15" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="20"/>
@@ -4264,58 +4364,58 @@
       <c r="O15" s="59"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="195">
+      <c r="A16" s="189">
         <v>10</v>
       </c>
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195">
+      <c r="C16" s="189"/>
+      <c r="D16" s="189">
         <v>0.06</v>
       </c>
-      <c r="E16" s="195" t="s">
+      <c r="E16" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="195">
+      <c r="F16" s="189">
         <v>258.60000000000002</v>
       </c>
-      <c r="G16" s="196" t="s">
+      <c r="G16" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="195">
+      <c r="H16" s="189">
         <v>2</v>
       </c>
-      <c r="I16" s="197">
+      <c r="I16" s="191">
         <f>IF(H16="",D16*F16,D16*F16*H16)</f>
         <v>31.032</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196">
+      <c r="A17" s="190">
         <v>20</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197">
+      <c r="C17" s="190"/>
+      <c r="D17" s="191">
         <v>35</v>
       </c>
-      <c r="E17" s="199" t="s">
+      <c r="E17" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="194">
         <f>J11</f>
         <v>0.75</v>
       </c>
-      <c r="G17" s="196" t="s">
+      <c r="G17" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="196">
+      <c r="H17" s="190">
         <v>2</v>
       </c>
-      <c r="I17" s="197">
+      <c r="I17" s="191">
         <f>IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>52.5</v>
       </c>
@@ -4327,30 +4427,30 @@
       <c r="O17" s="66"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="195">
+      <c r="A18" s="189">
         <v>30</v>
       </c>
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="201">
+      <c r="C18" s="189"/>
+      <c r="D18" s="195">
         <v>5</v>
       </c>
-      <c r="E18" s="195" t="s">
+      <c r="E18" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="200">
+      <c r="F18" s="194">
         <f>J11</f>
         <v>0.75</v>
       </c>
-      <c r="G18" s="196" t="s">
+      <c r="G18" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="195">
+      <c r="H18" s="189">
         <v>2</v>
       </c>
-      <c r="I18" s="201">
+      <c r="I18" s="195">
         <f t="shared" ref="I18:I20" si="0">IF(H18="",D18*F18,D18*F18*H18)</f>
         <v>7.5</v>
       </c>
@@ -4362,26 +4462,26 @@
       <c r="O18" s="59"/>
     </row>
     <row r="19" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196">
+      <c r="A19" s="190">
         <v>40</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="195"/>
-      <c r="D19" s="201">
+      <c r="C19" s="189"/>
+      <c r="D19" s="195">
         <v>10</v>
       </c>
-      <c r="E19" s="199" t="s">
+      <c r="E19" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="202">
+      <c r="F19" s="196">
         <f>J11</f>
         <v>0.75</v>
       </c>
-      <c r="G19" s="195"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="201">
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="195">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -4393,29 +4493,29 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="195">
+      <c r="A20" s="189">
         <v>50</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="201">
+      <c r="C20" s="189"/>
+      <c r="D20" s="195">
         <v>0.01</v>
       </c>
-      <c r="E20" s="195" t="s">
+      <c r="E20" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="195">
+      <c r="F20" s="189">
         <v>258.60000000000002</v>
       </c>
-      <c r="G20" s="199" t="s">
+      <c r="G20" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="H20" s="195">
+      <c r="H20" s="189">
         <v>2</v>
       </c>
-      <c r="I20" s="201">
+      <c r="I20" s="195">
         <f t="shared" si="0"/>
         <v>5.1720000000000006</v>
       </c>
@@ -4434,10 +4534,10 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="125" t="s">
+      <c r="H21" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="121">
         <f>SUM(I16:I20)</f>
         <v>103.70399999999999</v>
       </c>
@@ -4489,7 +4589,7 @@
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4541,7 +4641,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4556,14 +4656,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="71">
@@ -4573,7 +4673,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -4581,10 +4681,10 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="53"/>
@@ -4594,24 +4694,24 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>2</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="78" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -4619,7 +4719,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -4629,14 +4729,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>167</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -4644,12 +4744,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="116" t="s">
+      <c r="M5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
@@ -4659,7 +4759,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -4672,7 +4772,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -4682,7 +4782,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4703,7 +4803,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11"/>
@@ -4722,7 +4822,7 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4739,52 +4839,52 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="119" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -4794,7 +4894,7 @@
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="214">
+      <c r="E11" s="208">
         <f>J11*K11*L11</f>
         <v>7.1742052814641778E-3</v>
       </c>
@@ -4806,11 +4906,11 @@
       <c r="I11" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="142">
         <f>0.000581+PI()*0.003*0.003</f>
         <v>6.0927433388230812E-4</v>
       </c>
-      <c r="K11" s="147">
+      <c r="K11" s="144">
         <v>1.5E-3</v>
       </c>
       <c r="L11" s="27">
@@ -4838,10 +4938,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="123">
+      <c r="N12" s="121">
         <f>SUM(N11:N11)</f>
         <v>1.6141961883294399E-2</v>
       </c>
@@ -4865,31 +4965,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -4900,10 +5000,10 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78">
+      <c r="A15" s="76">
         <v>10</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="132" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="29"/>
@@ -4913,7 +5013,7 @@
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="138">
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -4947,7 +5047,7 @@
       <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="143">
+      <c r="F16" s="140">
         <v>13.66</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -4975,10 +5075,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="125" t="s">
+      <c r="H17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="121">
         <f>SUM(I15:I16)</f>
         <v>1.0598000000000001</v>
       </c>
@@ -5032,7 +5132,7 @@
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5083,7 +5183,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -5098,14 +5198,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="71">
@@ -5115,7 +5215,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -5123,10 +5223,10 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="53"/>
@@ -5136,24 +5236,24 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>2</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="78" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -5161,7 +5261,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -5171,14 +5271,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -5186,12 +5286,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="116" t="s">
+      <c r="M5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
@@ -5201,7 +5301,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -5214,7 +5314,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -5224,7 +5324,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -5245,7 +5345,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11"/>
@@ -5264,7 +5364,7 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5281,52 +5381,52 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="119" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -5336,7 +5436,7 @@
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="214">
+      <c r="E11" s="208">
         <f>J11*K11*L11</f>
         <v>1.0051673806464177E-2</v>
       </c>
@@ -5348,11 +5448,11 @@
       <c r="I11" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="142">
         <f>0.000825371+PI()*0.003*0.003</f>
         <v>8.5364533388230808E-4</v>
       </c>
-      <c r="K11" s="147">
+      <c r="K11" s="144">
         <v>1.5E-3</v>
       </c>
       <c r="L11" s="27">
@@ -5380,10 +5480,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="123">
+      <c r="N12" s="121">
         <f>SUM(N11:N11)</f>
         <v>2.2616266064544401E-2</v>
       </c>
@@ -5407,31 +5507,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -5442,10 +5542,10 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78">
+      <c r="A15" s="76">
         <v>10</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="132" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="29"/>
@@ -5455,7 +5555,7 @@
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="138">
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -5489,7 +5589,7 @@
       <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="139">
         <v>13.54</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -5517,10 +5617,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="125" t="s">
+      <c r="H17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="121">
         <f>SUM(I15:I16)</f>
         <v>1.0562</v>
       </c>
@@ -5574,7 +5674,7 @@
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5595,7 +5695,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5626,7 +5726,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -5641,14 +5741,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="71">
@@ -5658,7 +5758,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -5666,10 +5766,10 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="53"/>
@@ -5679,24 +5779,24 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>4</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="78" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -5704,7 +5804,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -5714,14 +5814,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>187</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -5729,12 +5829,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="116" t="s">
+      <c r="M5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
@@ -5744,7 +5844,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -5757,7 +5857,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -5767,7 +5867,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -5788,7 +5888,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11"/>
@@ -5807,7 +5907,7 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5824,52 +5924,52 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="119" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -5879,7 +5979,7 @@
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="214">
+      <c r="E11" s="208">
         <f>J11*K11*L11</f>
         <v>7.4365169564641785E-3</v>
       </c>
@@ -5891,11 +5991,11 @@
       <c r="I11" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="142">
         <f>0.000603277+PI()*0.003*0.003</f>
         <v>6.3155133388230814E-4</v>
       </c>
-      <c r="K11" s="147">
+      <c r="K11" s="144">
         <v>1.5E-3</v>
       </c>
       <c r="L11" s="27">
@@ -5923,10 +6023,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="123">
+      <c r="N12" s="121">
         <f>SUM(N11:N11)</f>
         <v>1.6732163152044403E-2</v>
       </c>
@@ -5950,31 +6050,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -5985,10 +6085,10 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78">
+      <c r="A15" s="76">
         <v>10</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="132" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="29"/>
@@ -5998,7 +6098,7 @@
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="138">
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -6032,7 +6132,7 @@
       <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="139">
         <v>13.2</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -6060,10 +6160,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="125" t="s">
+      <c r="H17" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="121">
         <f>SUM(I15:I16)</f>
         <v>0.72100000000000009</v>
       </c>
@@ -6107,8 +6207,8 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6117,7 +6217,7 @@
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6165,7 +6265,7 @@
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="84" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="40"/>
@@ -6182,7 +6282,7 @@
       <c r="A2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="9"/>
@@ -6202,7 +6302,7 @@
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="82">
         <v>81</v>
       </c>
       <c r="C4" s="9"/>
@@ -6265,490 +6365,490 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96" t="str">
+      <c r="A7" s="93"/>
+      <c r="B7" s="94" t="str">
         <f>'FR A0700'!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C7" s="97" t="str">
+      <c r="C7" s="95" t="str">
         <f>FR_A0700</f>
         <v>FR A0700</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98" t="str">
+      <c r="E7" s="95"/>
+      <c r="F7" s="96" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="99">
+      <c r="G7" s="95"/>
+      <c r="H7" s="97">
         <f t="shared" ref="H7:H15" si="0">SUM(J7:M7)</f>
-        <v>15.939629425916666</v>
-      </c>
-      <c r="I7" s="100">
+        <v>110.99188197042584</v>
+      </c>
+      <c r="I7" s="98">
         <f>FR_A0700_q</f>
         <v>1</v>
       </c>
-      <c r="J7" s="101">
+      <c r="J7" s="99">
         <f>FR_A0700_m</f>
         <v>11.660500169999999</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="99">
         <f>FR_A0700_p</f>
-        <v>1.61246258925</v>
-      </c>
-      <c r="L7" s="101">
+        <v>24.272462589250004</v>
+      </c>
+      <c r="L7" s="99">
         <f>FR_A0700_f</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="101">
+        <v>72.392252544509162</v>
+      </c>
+      <c r="M7" s="99">
         <f>FR_A0700_t</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="100">
         <f t="shared" ref="N7:N15" si="1">H7*I7</f>
-        <v>15.939629425916666</v>
-      </c>
-      <c r="O7" s="103"/>
+        <v>110.99188197042584</v>
+      </c>
+      <c r="O7" s="101"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105" t="str">
+      <c r="A8" s="102"/>
+      <c r="B8" s="103" t="str">
         <f>'FR A0700'!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C8" s="106" t="str">
+      <c r="C8" s="104" t="str">
         <f>FR_0700_000</f>
         <v>FR_0300_000</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="107" t="str">
+      <c r="E8" s="105" t="str">
         <f>$F$7</f>
         <v>Bodywork</v>
       </c>
-      <c r="F8" s="108" t="str">
+      <c r="F8" s="106" t="str">
         <f>FR_0700_000!B5</f>
         <v>Nose</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="109">
+      <c r="G8" s="105"/>
+      <c r="H8" s="107">
         <f t="shared" si="0"/>
         <v>249.95200000000006</v>
       </c>
-      <c r="I8" s="110">
+      <c r="I8" s="108">
         <f>FR_A0700_q*FR_0700_000_q</f>
         <v>1</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="109">
         <f>FR_0700_000_m</f>
         <v>82.8</v>
       </c>
-      <c r="K8" s="111">
+      <c r="K8" s="109">
         <f>FR_0700_000_p</f>
         <v>167.15200000000004</v>
       </c>
-      <c r="L8" s="111">
+      <c r="L8" s="109">
         <v>0</v>
       </c>
-      <c r="M8" s="111">
+      <c r="M8" s="109">
         <v>0</v>
       </c>
-      <c r="N8" s="112">
+      <c r="N8" s="110">
         <f t="shared" si="1"/>
         <v>249.95200000000006</v>
       </c>
-      <c r="O8" s="113"/>
+      <c r="O8" s="111"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105" t="str">
+      <c r="A9" s="102"/>
+      <c r="B9" s="103" t="str">
         <f>'FR A0700'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C9" s="107" t="str">
+      <c r="C9" s="105" t="str">
         <f>FR_0700_001</f>
         <v>FR_0300_001</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="107" t="str">
+      <c r="E9" s="105" t="str">
         <f t="shared" ref="E9:E15" si="2">$F$7</f>
         <v>Bodywork</v>
       </c>
-      <c r="F9" s="108" t="str">
+      <c r="F9" s="106" t="str">
         <f>FR_0700_001!B5</f>
         <v>Left Inlet</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="109">
+      <c r="G9" s="105"/>
+      <c r="H9" s="107">
         <f t="shared" si="0"/>
         <v>108.45400000000001</v>
       </c>
-      <c r="I9" s="114">
+      <c r="I9" s="112">
         <f>FR_A0700_q*FR_0700_001_q</f>
         <v>1</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="109">
         <f>FR_0700_001_m</f>
         <v>28.200000000000003</v>
       </c>
-      <c r="K9" s="111">
+      <c r="K9" s="109">
         <f>FR_0700_001_p</f>
         <v>80.254000000000005</v>
       </c>
-      <c r="L9" s="111">
+      <c r="L9" s="109">
         <v>0</v>
       </c>
-      <c r="M9" s="111">
+      <c r="M9" s="109">
         <v>0</v>
       </c>
-      <c r="N9" s="112">
+      <c r="N9" s="110">
         <f t="shared" si="1"/>
         <v>108.45400000000001</v>
       </c>
-      <c r="O9" s="113"/>
+      <c r="O9" s="111"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105" t="str">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103" t="str">
         <f>'FR A0700'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C10" s="107" t="str">
+      <c r="C10" s="105" t="str">
         <f>FR_0700_002</f>
         <v>FR_0300_002</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="107" t="str">
+      <c r="E10" s="105" t="str">
         <f t="shared" si="2"/>
         <v>Bodywork</v>
       </c>
-      <c r="F10" s="157" t="str">
+      <c r="F10" s="154" t="str">
         <f>FR_0700_002!B5</f>
         <v>Right Inlet</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="109">
+      <c r="G10" s="105"/>
+      <c r="H10" s="107">
         <f t="shared" si="0"/>
         <v>108.45400000000001</v>
       </c>
-      <c r="I10" s="110">
+      <c r="I10" s="108">
         <f>FR_A0700_q*FR_0700_002_q</f>
         <v>1</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="109">
         <f>FR_0700_002_m</f>
         <v>28.200000000000003</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="109">
         <f>FR_0700_002_p</f>
         <v>80.254000000000005</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="109">
         <v>0</v>
       </c>
-      <c r="M10" s="111">
+      <c r="M10" s="109">
         <v>0</v>
       </c>
-      <c r="N10" s="112">
+      <c r="N10" s="110">
         <f t="shared" si="1"/>
         <v>108.45400000000001</v>
       </c>
-      <c r="O10" s="113"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="105" t="str">
+      <c r="A11" s="102"/>
+      <c r="B11" s="103" t="str">
         <f>'FR A0700'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C11" s="107" t="str">
+      <c r="C11" s="105" t="str">
         <f>FR_0700_003</f>
         <v>FR_0300_003</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="107" t="str">
+      <c r="E11" s="105" t="str">
         <f t="shared" si="2"/>
         <v>Bodywork</v>
       </c>
-      <c r="F11" s="108" t="str">
+      <c r="F11" s="106" t="str">
         <f>FR_0700_003!B5</f>
         <v>Front Side plate</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="109">
+      <c r="G11" s="105"/>
+      <c r="H11" s="107">
         <f t="shared" si="0"/>
         <v>81.564000000000007</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="108">
         <f>FR_A0700_q*FR_0700_003_q</f>
         <v>2</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="109">
         <f>FR_0700_003_m</f>
         <v>12.960000000000004</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="109">
         <f>FR_0700_003_p</f>
         <v>68.603999999999999</v>
       </c>
-      <c r="L11" s="111">
+      <c r="L11" s="109">
         <v>0</v>
       </c>
-      <c r="M11" s="111">
+      <c r="M11" s="109">
         <v>0</v>
       </c>
-      <c r="N11" s="112">
+      <c r="N11" s="110">
         <f t="shared" si="1"/>
         <v>163.12800000000001</v>
       </c>
-      <c r="O11" s="113"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105" t="str">
+      <c r="A12" s="102"/>
+      <c r="B12" s="103" t="str">
         <f>'FR A0700'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C12" s="107" t="str">
+      <c r="C12" s="105" t="str">
         <f>FR_0700_004</f>
         <v>FR_0300_004</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="107" t="str">
+      <c r="E12" s="105" t="str">
         <f t="shared" si="2"/>
         <v>Bodywork</v>
       </c>
-      <c r="F12" s="108" t="str">
+      <c r="F12" s="106" t="str">
         <f>FR_0700_004!B5</f>
         <v>Back Side Plate</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="109">
+      <c r="G12" s="105"/>
+      <c r="H12" s="107">
         <f t="shared" si="0"/>
         <v>130.70400000000001</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="108">
         <f>FR_A0700_q*FR_0700_004_q</f>
         <v>2</v>
       </c>
-      <c r="J12" s="111">
+      <c r="J12" s="109">
         <f>FR_0700_004_m</f>
         <v>27.000000000000004</v>
       </c>
-      <c r="K12" s="111">
+      <c r="K12" s="109">
         <f>FR_0700_004_p</f>
         <v>103.70399999999999</v>
       </c>
-      <c r="L12" s="111">
+      <c r="L12" s="109">
         <v>0</v>
       </c>
-      <c r="M12" s="111">
+      <c r="M12" s="109">
         <v>0</v>
       </c>
-      <c r="N12" s="112">
+      <c r="N12" s="110">
         <f t="shared" si="1"/>
         <v>261.40800000000002</v>
       </c>
-      <c r="O12" s="113"/>
+      <c r="O12" s="111"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="105" t="str">
+      <c r="A13" s="102"/>
+      <c r="B13" s="103" t="str">
         <f>'FR A0700'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C13" s="107" t="str">
+      <c r="C13" s="105" t="str">
         <f>FR_0700_005</f>
         <v>FR_0300_005</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="107" t="str">
+      <c r="E13" s="105" t="str">
         <f t="shared" si="2"/>
         <v>Bodywork</v>
       </c>
-      <c r="F13" s="108" t="str">
+      <c r="F13" s="106" t="str">
         <f>FR_0700_005!B5</f>
         <v>Back Inlet Bracket</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="109">
+      <c r="G13" s="105"/>
+      <c r="H13" s="107">
         <f t="shared" si="0"/>
         <v>1.0759419618832944</v>
       </c>
-      <c r="I13" s="110">
+      <c r="I13" s="108">
         <f>FR_A0700_q*FR_0700_005_q</f>
         <v>2</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="109">
         <f>FR_0700_005_m</f>
         <v>1.6141961883294399E-2</v>
       </c>
-      <c r="K13" s="111">
+      <c r="K13" s="109">
         <f>FR_0700_005_p</f>
         <v>1.0598000000000001</v>
       </c>
-      <c r="L13" s="111">
+      <c r="L13" s="109">
         <v>0</v>
       </c>
-      <c r="M13" s="111">
+      <c r="M13" s="109">
         <v>0</v>
       </c>
-      <c r="N13" s="112">
+      <c r="N13" s="110">
         <f t="shared" si="1"/>
         <v>2.1518839237665888</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105" t="str">
+      <c r="A14" s="102"/>
+      <c r="B14" s="103" t="str">
         <f>'FR A0700'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C14" s="107" t="str">
+      <c r="C14" s="105" t="str">
         <f>FR_0700_006</f>
         <v>FR_0300_006</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="107" t="str">
+      <c r="E14" s="105" t="str">
         <f t="shared" si="2"/>
         <v>Bodywork</v>
       </c>
-      <c r="F14" s="108" t="str">
+      <c r="F14" s="106" t="str">
         <f>FR_0700_006!B5</f>
         <v>Front Inlet Bracket</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="109">
+      <c r="G14" s="105"/>
+      <c r="H14" s="107">
         <f t="shared" si="0"/>
         <v>1.0788162660645444</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="108">
         <f>FR_A0700_q*FR_0700_006_q</f>
         <v>2</v>
       </c>
-      <c r="J14" s="111">
+      <c r="J14" s="109">
         <f>FR_0700_006_m</f>
         <v>2.2616266064544401E-2</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="109">
         <f>FR_0700_006_p</f>
         <v>1.0562</v>
       </c>
-      <c r="L14" s="111">
+      <c r="L14" s="109">
         <v>0</v>
       </c>
-      <c r="M14" s="111">
+      <c r="M14" s="109">
         <v>0</v>
       </c>
-      <c r="N14" s="112">
+      <c r="N14" s="110">
         <f t="shared" si="1"/>
         <v>2.1576325321290888</v>
       </c>
-      <c r="O14" s="113"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="105" t="str">
+      <c r="A15" s="102"/>
+      <c r="B15" s="103" t="str">
         <f>'FR A0700'!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C15" s="107" t="str">
+      <c r="C15" s="105" t="str">
         <f>FR_0700_007</f>
         <v>FR_0300_007</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="107" t="str">
+      <c r="E15" s="105" t="str">
         <f t="shared" si="2"/>
         <v>Bodywork</v>
       </c>
-      <c r="F15" s="108" t="str">
+      <c r="F15" s="106" t="str">
         <f>FR_0700_007!B5</f>
         <v>Nose Bracket</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="109">
+      <c r="G15" s="113"/>
+      <c r="H15" s="107">
         <f t="shared" si="0"/>
         <v>0.73773216315204448</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="108">
         <f>FR_A0700_q*FR_0700_007_q</f>
         <v>4</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="109">
         <f>FR_0700_007_m</f>
         <v>1.6732163152044403E-2</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="109">
         <f>FR_0700_007_p</f>
         <v>0.72100000000000009</v>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="109">
         <v>0</v>
       </c>
-      <c r="M15" s="111">
+      <c r="M15" s="109">
         <v>0</v>
       </c>
-      <c r="N15" s="112">
+      <c r="N15" s="110">
         <f t="shared" si="1"/>
         <v>2.9509286526081779</v>
       </c>
-      <c r="O15" s="113"/>
+      <c r="O15" s="111"/>
     </row>
     <row r="16" spans="1:15" s="7" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="150"/>
-      <c r="B16" s="151" t="str">
+      <c r="A16" s="147"/>
+      <c r="B16" s="148" t="str">
         <f>'FR A0700'!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="151" t="s">
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="155">
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152">
         <f>SUMPRODUCT($I7:$I15,J7:J15)</f>
         <v>230.92494527850386</v>
       </c>
-      <c r="K16" s="155">
+      <c r="K16" s="152">
         <f>SUMPRODUCT($I7:$I15,K7:K15)</f>
-        <v>681.00446258925001</v>
-      </c>
-      <c r="L16" s="155">
+        <v>703.66446258925009</v>
+      </c>
+      <c r="L16" s="152">
         <f>SUMPRODUCT($I7:$I15,L7:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="155">
+        <v>72.392252544509162</v>
+      </c>
+      <c r="M16" s="152">
         <f>SUMPRODUCT($I7:$I15,M7:M15)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="N16" s="155">
+      <c r="N16" s="152">
         <f>SUM(N7:N15)</f>
-        <v>914.59607453442061</v>
-      </c>
-      <c r="O16" s="156"/>
+        <v>1009.6483270789298</v>
+      </c>
+      <c r="O16" s="153"/>
     </row>
     <row r="17" spans="1:14" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -8997,17 +9097,17 @@
     <tabColor rgb="FFFF66CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625"/>
     <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625"/>
     <col min="5" max="5" width="13.109375"/>
     <col min="6" max="7" width="11.44140625"/>
@@ -9038,7 +9138,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -9053,24 +9153,24 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="87">
+      <c r="N2" s="85">
         <f>FR_A0700_pa+FR_A0700_m+FR_A0700_p+FR_A0700_f+FR_A0700_t</f>
-        <v>914.5960745344205</v>
+        <v>1009.6483270789297</v>
       </c>
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -9086,16 +9186,16 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>1</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="87" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="54" t="s">
@@ -9108,7 +9208,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -9118,7 +9218,7 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="87" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -9131,22 +9231,22 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="90" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="89" t="s">
+      <c r="M5" s="87" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
         <f>N2*N3</f>
-        <v>914.5960745344205</v>
+        <v>1009.6483270789297</v>
       </c>
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="87" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -9159,7 +9259,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="90" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -9169,7 +9269,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="87" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -9207,19 +9307,19 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="87" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="53"/>
@@ -9234,17 +9334,17 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="149">
+      <c r="A10" s="146">
         <v>10</v>
       </c>
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="168">
+      <c r="C10" s="165">
         <f>FR_0700_000!N2</f>
         <v>249.95200000000006</v>
       </c>
-      <c r="D10" s="148">
+      <c r="D10" s="145">
         <f>FR_0700_000_q</f>
         <v>1</v>
       </c>
@@ -9264,17 +9364,17 @@
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="158">
         <v>20</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="169" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="159">
         <f>FR_0700_001!N2</f>
         <v>108.45400000000001</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="125">
         <f>FR_0700_001_q</f>
         <v>1</v>
       </c>
@@ -9294,17 +9394,17 @@
       <c r="O11" s="59"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="158">
         <v>30</v>
       </c>
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="169" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="159">
         <f>FR_0700_002!N2</f>
         <v>108.45400000000001</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="125">
         <f>FR_0700_002_q</f>
         <v>1</v>
       </c>
@@ -9324,13 +9424,13 @@
       <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="169">
+      <c r="A13" s="166">
         <v>40</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="167" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="171">
+      <c r="C13" s="168">
         <f>FR_0700_003!N2</f>
         <v>81.564000000000007</v>
       </c>
@@ -9357,10 +9457,10 @@
       <c r="A14" s="14">
         <v>50</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="124">
         <f>FR_0700_004!N2</f>
         <v>130.70400000000001</v>
       </c>
@@ -9387,10 +9487,10 @@
       <c r="A15" s="14">
         <v>60</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="124">
         <f>FR_0700_005!N2</f>
         <v>1.0759419618832944</v>
       </c>
@@ -9417,10 +9517,10 @@
       <c r="A16" s="14">
         <v>70</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="124">
         <f>FR_0700_006!N2</f>
         <v>1.0788162660645444</v>
       </c>
@@ -9447,10 +9547,10 @@
       <c r="A17" s="14">
         <v>80</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="124">
         <f>FR_0700_007!N2</f>
         <v>0.73773216315204448</v>
       </c>
@@ -9475,12 +9575,12 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60"/>
-      <c r="B18" s="129"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="53"/>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="89">
         <f>SUM(E10:E17)</f>
         <v>898.65644510850393</v>
       </c>
@@ -9497,7 +9597,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
-      <c r="B19" s="131"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
@@ -9513,117 +9613,117 @@
       <c r="O19" s="59"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="89" t="s">
+      <c r="H20" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="89" t="s">
+      <c r="I20" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="89" t="s">
+      <c r="J20" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="89" t="s">
+      <c r="K20" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="89" t="s">
+      <c r="M20" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="89" t="s">
+      <c r="N20" s="87" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="59"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="149">
+      <c r="A21" s="146">
         <v>10</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="173">
+      <c r="D21" s="170">
         <v>10</v>
       </c>
-      <c r="E21" s="179">
+      <c r="E21" s="176">
         <f>0.001367374+2*0.001404596+0.001873451</f>
         <v>6.0500169999999995E-3</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="F21" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="149"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="178">
+      <c r="G21" s="146"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="175">
         <f>E21</f>
         <v>6.0500169999999995E-3</v>
       </c>
-      <c r="N21" s="133">
+      <c r="N21" s="131">
         <f t="shared" ref="N21:N22" si="1">M21*D21</f>
         <v>6.0500169999999992E-2</v>
       </c>
       <c r="O21" s="59"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="158">
         <v>20</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="161" t="s">
+      <c r="C22" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="159">
         <v>10</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="158">
         <f>(1.38+0.47*2)/2</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="F22" s="161" t="s">
+      <c r="F22" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="161"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="163">
+      <c r="G22" s="158"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="160">
         <f>E22</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="N22" s="133">
+      <c r="N22" s="131">
         <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
@@ -9642,10 +9742,10 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="159" t="s">
+      <c r="M23" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="94">
+      <c r="N23" s="92">
         <f>SUM(N21:N22)</f>
         <v>11.660500169999999</v>
       </c>
@@ -9669,31 +9769,31 @@
       <c r="O24" s="59"/>
     </row>
     <row r="25" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="89" t="s">
+      <c r="G25" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="89" t="s">
+      <c r="I25" s="126" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="20"/>
@@ -9704,29 +9804,29 @@
       <c r="O25" s="66"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="70">
+      <c r="A26" s="209">
         <v>10</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="211" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="211" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="212">
         <v>0.15</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="72">
+      <c r="F26" s="211">
         <f>2*(2.769+2.5)</f>
         <v>10.538</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="71">
-        <f t="shared" ref="I26:I30" si="2">IF(H26="",D26*F26,D26*F26*H26)</f>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="212">
+        <f t="shared" ref="I26:I42" si="2">IF(H26="",D26*F26,D26*F26*H26)</f>
         <v>1.5807</v>
       </c>
       <c r="J26" s="53"/>
@@ -9737,28 +9837,28 @@
       <c r="O26" s="59"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="70">
-        <v>30</v>
-      </c>
-      <c r="B27" s="135" t="s">
+      <c r="A27" s="209">
+        <v>20</v>
+      </c>
+      <c r="B27" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="211" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="212">
         <v>5.25</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="188">
+      <c r="F27" s="213">
         <f>E21</f>
         <v>6.0500169999999995E-3</v>
       </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="187">
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="214">
         <f t="shared" si="2"/>
         <v>3.1762589250000001E-2</v>
       </c>
@@ -9770,23 +9870,27 @@
       <c r="O27" s="59"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="70">
-        <v>40</v>
-      </c>
-      <c r="B28" s="73" t="s">
+      <c r="A28" s="209">
+        <v>30</v>
+      </c>
+      <c r="B28" s="210" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71">
+      <c r="C28" s="211" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="212">
         <v>0.06</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71">
+      <c r="E28" s="211"/>
+      <c r="F28" s="211">
+        <v>4</v>
+      </c>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="214">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
@@ -9796,23 +9900,27 @@
       <c r="O28" s="59"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="70">
-        <v>50</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71">
+      <c r="A29" s="209">
+        <v>40</v>
+      </c>
+      <c r="B29" s="210" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="211" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="212">
         <v>0.75</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71">
+      <c r="E29" s="211"/>
+      <c r="F29" s="211">
+        <v>4</v>
+      </c>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="214">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="53"/>
       <c r="K29" s="53"/>
@@ -9822,23 +9930,27 @@
       <c r="O29" s="59"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="70">
-        <v>60</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71">
-        <v>0.25</v>
-      </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71">
+      <c r="A30" s="209">
+        <v>50</v>
+      </c>
+      <c r="B30" s="210" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="211" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="212">
+        <v>0.06</v>
+      </c>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211">
+        <v>4</v>
+      </c>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="214">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J30" s="53"/>
       <c r="K30" s="53"/>
@@ -9848,19 +9960,27 @@
       <c r="O30" s="59"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="91">
-        <f>SUM(I26:I30)</f>
-        <v>1.61246258925</v>
+      <c r="A31" s="209">
+        <v>60</v>
+      </c>
+      <c r="B31" s="210" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="211" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="212">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211">
+        <v>4</v>
+      </c>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="214">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J31" s="53"/>
       <c r="K31" s="53"/>
@@ -9870,15 +9990,28 @@
       <c r="O31" s="59"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
+      <c r="A32" s="209">
+        <v>70</v>
+      </c>
+      <c r="B32" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="211" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="212">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211">
+        <v>4</v>
+      </c>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="214">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J32" s="53"/>
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
@@ -9887,247 +10020,243 @@
       <c r="O32" s="59"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="89" t="s">
-        <v>18</v>
-      </c>
+      <c r="A33" s="209">
+        <v>80</v>
+      </c>
+      <c r="B33" s="215" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="211" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="212">
+        <v>0.31</v>
+      </c>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211">
+        <v>4</v>
+      </c>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="214">
+        <f t="shared" si="2"/>
+        <v>1.24</v>
+      </c>
+      <c r="J33" s="53"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="53"/>
       <c r="N33" s="53"/>
       <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="140">
-        <v>10</v>
-      </c>
-      <c r="B34" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="71">
-        <f>0.8/105154*E34^2*G34*SQRT(G34)+(0.003*EXP(0.319*E34))</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="140"/>
-      <c r="J34" s="139">
-        <f t="shared" ref="J34:J39" si="3">I34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="137"/>
-    </row>
-    <row r="35" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="140">
-        <v>20</v>
-      </c>
-      <c r="B35" s="140" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="71">
-        <v>0.01</v>
-      </c>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="139">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="137"/>
-    </row>
-    <row r="36" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="180">
-        <v>30</v>
-      </c>
-      <c r="B36" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="133">
-        <f>(0.009*EXP(0.2*E36))</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="181">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="136"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="136"/>
-      <c r="O36" s="137"/>
-    </row>
-    <row r="37" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="140">
-        <v>40</v>
-      </c>
-      <c r="B37" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="182" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="162">
-        <f>(0.001*E37^2*G37+14)</f>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="E37" s="182">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="209">
+        <v>90</v>
+      </c>
+      <c r="B34" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="211" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="212">
+        <v>0.19</v>
+      </c>
+      <c r="E34" s="211"/>
+      <c r="F34" s="216">
+        <v>5</v>
+      </c>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="214">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="59"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="209">
+        <v>100</v>
+      </c>
+      <c r="B35" s="210" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="211" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="212">
+        <v>0.75</v>
+      </c>
+      <c r="E35" s="211"/>
+      <c r="F35" s="216">
+        <v>5</v>
+      </c>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="214">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="59"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="209">
+        <v>110</v>
+      </c>
+      <c r="B36" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="211" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="212">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="211"/>
+      <c r="F36" s="216">
+        <v>5</v>
+      </c>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="214">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="59"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="209">
+        <v>120</v>
+      </c>
+      <c r="B37" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="211" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="212">
+        <v>0.19</v>
+      </c>
+      <c r="E37" s="211"/>
+      <c r="F37" s="216">
+        <v>5</v>
+      </c>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="214">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="59"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="209">
+        <v>130</v>
+      </c>
+      <c r="B38" s="210" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="211" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="212">
+        <v>0.75</v>
+      </c>
+      <c r="E38" s="211"/>
+      <c r="F38" s="216">
+        <v>5</v>
+      </c>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="214">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="59"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="209">
+        <v>140</v>
+      </c>
+      <c r="B39" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="211" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="212">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="211"/>
+      <c r="F39" s="216">
+        <v>5</v>
+      </c>
+      <c r="G39" s="211"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="214">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="59"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="209">
+        <v>150</v>
+      </c>
+      <c r="B40" s="215" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="211" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="212">
+        <v>0.06</v>
+      </c>
+      <c r="E40" s="211"/>
+      <c r="F40" s="216">
         <v>8</v>
       </c>
-      <c r="F37" s="182"/>
-      <c r="G37" s="182">
-        <v>40</v>
-      </c>
-      <c r="H37" s="182"/>
-      <c r="I37" s="182">
-        <v>4</v>
-      </c>
-      <c r="J37" s="183">
-        <f t="shared" si="3"/>
-        <v>66.239999999999995</v>
-      </c>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="137"/>
-    </row>
-    <row r="38" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="140">
-        <v>50</v>
-      </c>
-      <c r="B38" s="184" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="185" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="186">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E38" s="184">
-        <v>2000</v>
-      </c>
-      <c r="F38" s="182" t="s">
-        <v>193</v>
-      </c>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182">
-        <v>1000</v>
-      </c>
-      <c r="J38" s="183">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
-      <c r="N38" s="136"/>
-      <c r="O38" s="137"/>
-    </row>
-    <row r="39" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="180">
-        <v>60</v>
-      </c>
-      <c r="B39" s="184" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" s="185" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="186">
-        <v>2E-3</v>
-      </c>
-      <c r="E39" s="184">
-        <v>2000</v>
-      </c>
-      <c r="F39" s="182" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="182"/>
-      <c r="H39" s="182"/>
-      <c r="I39" s="182">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="183">
-        <f t="shared" si="3"/>
+      <c r="G40" s="211" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="211">
         <v>2</v>
       </c>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="137"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="94">
-        <f>SUM(J34:J36)</f>
-        <v>0</v>
-      </c>
+      <c r="I40" s="214">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
+      <c r="J40" s="53"/>
       <c r="K40" s="53"/>
       <c r="L40" s="53"/>
       <c r="M40" s="53"/>
@@ -10135,15 +10264,32 @@
       <c r="O40" s="59"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
+      <c r="A41" s="209">
+        <v>160</v>
+      </c>
+      <c r="B41" s="215" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="211" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="212">
+        <v>0.06</v>
+      </c>
+      <c r="E41" s="211"/>
+      <c r="F41" s="216">
+        <v>8</v>
+      </c>
+      <c r="G41" s="211" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="211">
+        <v>2</v>
+      </c>
+      <c r="I41" s="214">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
       <c r="L41" s="53"/>
@@ -10152,34 +10298,33 @@
       <c r="O41" s="59"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="20"/>
+      <c r="A42" s="209">
+        <v>170</v>
+      </c>
+      <c r="B42" s="215" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="211" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="212">
+        <v>0.06</v>
+      </c>
+      <c r="E42" s="211"/>
+      <c r="F42" s="216">
+        <v>1</v>
+      </c>
+      <c r="G42" s="211" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="211">
+        <v>2</v>
+      </c>
+      <c r="I42" s="214">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="J42" s="53"/>
       <c r="K42" s="53"/>
       <c r="L42" s="53"/>
       <c r="M42" s="53"/>
@@ -10187,35 +10332,21 @@
       <c r="O42" s="59"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="70">
-        <v>10</v>
-      </c>
-      <c r="B43" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="71">
-        <v>500</v>
-      </c>
-      <c r="E43" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="70">
-        <v>16</v>
-      </c>
-      <c r="G43" s="70">
-        <v>3000</v>
-      </c>
-      <c r="H43" s="70">
-        <v>1</v>
-      </c>
-      <c r="I43" s="71">
-        <f>D43*F43/G43*H43</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="J43" s="20"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="92">
+        <f>SUM(I26:I42)</f>
+        <v>24.272462589250004</v>
+      </c>
+      <c r="J43" s="53"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
       <c r="M43" s="53"/>
@@ -10223,59 +10354,430 @@
       <c r="O43" s="59"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="94">
-        <f>SUM(I43:I43)</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="J44" s="20"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
       <c r="K44" s="53"/>
       <c r="L44" s="53"/>
       <c r="M44" s="53"/>
       <c r="N44" s="53"/>
       <c r="O44" s="59"/>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="67"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="69"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="59"/>
+    </row>
+    <row r="46" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="177">
+        <v>10</v>
+      </c>
+      <c r="B46" s="177" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="137" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="71">
+        <f>0.8/105154*E46^2*G46*SQRT(G46)+(0.003*EXP(0.319*E46))</f>
+        <v>6.5344202146287819E-2</v>
+      </c>
+      <c r="E46" s="137">
+        <v>6</v>
+      </c>
+      <c r="F46" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="137">
+        <v>30</v>
+      </c>
+      <c r="H46" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="137">
+        <v>10</v>
+      </c>
+      <c r="J46" s="136">
+        <f t="shared" ref="J46:J51" si="3">I46*D46</f>
+        <v>0.65344202146287822</v>
+      </c>
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="133"/>
+      <c r="O46" s="134"/>
+    </row>
+    <row r="47" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="216">
+        <v>20</v>
+      </c>
+      <c r="B47" s="216" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="217" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="71">
+        <v>0.01</v>
+      </c>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137">
+        <v>20</v>
+      </c>
+      <c r="J47" s="136">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K47" s="133"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="134"/>
+    </row>
+    <row r="48" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="216">
+        <v>30</v>
+      </c>
+      <c r="B48" s="216" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="217" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="131">
+        <f>(0.009*EXP(0.2*E48))</f>
+        <v>2.9881052304628931E-2</v>
+      </c>
+      <c r="E48" s="177">
+        <v>6</v>
+      </c>
+      <c r="F48" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="177"/>
+      <c r="H48" s="177"/>
+      <c r="I48" s="177">
+        <v>10</v>
+      </c>
+      <c r="J48" s="178">
+        <f t="shared" si="3"/>
+        <v>0.2988105230462893</v>
+      </c>
+      <c r="K48" s="133"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="133"/>
+      <c r="O48" s="134"/>
+    </row>
+    <row r="49" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="216">
+        <v>40</v>
+      </c>
+      <c r="B49" s="216" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="218" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="159">
+        <f>(0.001*E49^2*G49+14)</f>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="E49" s="179">
+        <v>8</v>
+      </c>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179">
+        <v>40</v>
+      </c>
+      <c r="H49" s="179"/>
+      <c r="I49" s="179">
+        <v>4</v>
+      </c>
+      <c r="J49" s="180">
+        <f t="shared" si="3"/>
+        <v>66.239999999999995</v>
+      </c>
+      <c r="K49" s="133"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="134"/>
+    </row>
+    <row r="50" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="216">
+        <v>50</v>
+      </c>
+      <c r="B50" s="220" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="219" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="182">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E50" s="181">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="179" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="179">
+        <v>1000</v>
+      </c>
+      <c r="J50" s="180">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="134"/>
+    </row>
+    <row r="51" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="216">
+        <v>60</v>
+      </c>
+      <c r="B51" s="220" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="219" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="182">
+        <v>2E-3</v>
+      </c>
+      <c r="E51" s="181">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="179" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="179">
+        <v>1000</v>
+      </c>
+      <c r="J51" s="180">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K51" s="133"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
+      <c r="N51" s="133"/>
+      <c r="O51" s="134"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="65"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="92">
+        <f>SUM(J46:J51)</f>
+        <v>72.392252544509162</v>
+      </c>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="59"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="60"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="59"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="20"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="59"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="70">
+        <v>10</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="71">
+        <v>500</v>
+      </c>
+      <c r="E55" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="70">
+        <v>16</v>
+      </c>
+      <c r="G55" s="70">
+        <v>3000</v>
+      </c>
+      <c r="H55" s="70">
+        <v>1</v>
+      </c>
+      <c r="I55" s="71">
+        <f>D55*F55/G55*H55</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J55" s="20"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="59"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="65"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="92">
+        <f>SUM(I55:I55)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J56" s="20"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="59"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="67"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="69"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10294,7 +10796,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="16383" man="1"/>
+    <brk id="57" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -10308,7 +10810,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10345,7 +10847,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -10360,14 +10862,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="71">
@@ -10377,7 +10879,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -10385,10 +10887,10 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="53"/>
@@ -10398,24 +10900,24 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>1</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="78" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -10423,7 +10925,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -10433,14 +10935,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -10448,12 +10950,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="116" t="s">
+      <c r="M5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
@@ -10463,7 +10965,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -10476,7 +10978,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -10486,7 +10988,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -10507,7 +11009,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -10528,7 +11030,7 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -10545,52 +11047,52 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="119" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -10600,7 +11102,7 @@
       <c r="D11" s="28">
         <v>100</v>
       </c>
-      <c r="E11" s="214">
+      <c r="E11" s="208">
         <f>J11*K11*L11</f>
         <v>0.41400000000000003</v>
       </c>
@@ -10610,10 +11112,10 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="88">
+      <c r="J11" s="86">
         <v>1.38</v>
       </c>
-      <c r="K11" s="189">
+      <c r="K11" s="183">
         <f>0.3/L11</f>
         <v>1.3636363636363637E-4</v>
       </c>
@@ -10642,10 +11144,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="123">
+      <c r="N12" s="121">
         <f>SUM(N11:N11)</f>
         <v>82.8</v>
       </c>
@@ -10669,31 +11171,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -10704,58 +11206,58 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="195">
+      <c r="A15" s="189">
         <v>10</v>
       </c>
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195">
+      <c r="C15" s="189"/>
+      <c r="D15" s="189">
         <v>0.06</v>
       </c>
-      <c r="E15" s="195" t="s">
+      <c r="E15" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="195">
+      <c r="F15" s="189">
         <v>296.8</v>
       </c>
-      <c r="G15" s="196" t="s">
+      <c r="G15" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H15" s="195">
+      <c r="H15" s="189">
         <v>2</v>
       </c>
-      <c r="I15" s="197">
+      <c r="I15" s="191">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>35.616</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196">
+      <c r="A16" s="190">
         <v>20</v>
       </c>
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197">
+      <c r="C16" s="190"/>
+      <c r="D16" s="191">
         <v>35</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="194">
         <f>J11</f>
         <v>1.38</v>
       </c>
-      <c r="G16" s="196" t="s">
+      <c r="G16" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="196">
+      <c r="H16" s="190">
         <v>2</v>
       </c>
-      <c r="I16" s="197">
+      <c r="I16" s="191">
         <f>IF(H16="",D16*F16,D16*F16*H16)</f>
         <v>96.6</v>
       </c>
@@ -10767,30 +11269,30 @@
       <c r="O16" s="66"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="195">
+      <c r="A17" s="189">
         <v>30</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="201">
+      <c r="C17" s="189"/>
+      <c r="D17" s="195">
         <v>5</v>
       </c>
-      <c r="E17" s="195" t="s">
+      <c r="E17" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="194">
         <f>J11</f>
         <v>1.38</v>
       </c>
-      <c r="G17" s="196" t="s">
+      <c r="G17" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="195">
+      <c r="H17" s="189">
         <v>2</v>
       </c>
-      <c r="I17" s="201">
+      <c r="I17" s="195">
         <f t="shared" ref="I17:I20" si="0">IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>13.799999999999999</v>
       </c>
@@ -10802,26 +11304,26 @@
       <c r="O17" s="59"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196">
+      <c r="A18" s="190">
         <v>40</v>
       </c>
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="201">
+      <c r="C18" s="189"/>
+      <c r="D18" s="195">
         <v>10</v>
       </c>
-      <c r="E18" s="199" t="s">
+      <c r="E18" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="202">
+      <c r="F18" s="196">
         <f>J11</f>
         <v>1.38</v>
       </c>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="201">
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="195">
         <f t="shared" si="0"/>
         <v>13.799999999999999</v>
       </c>
@@ -10833,25 +11335,25 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="195">
+      <c r="A19" s="189">
         <v>50</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="195"/>
-      <c r="D19" s="201">
+      <c r="C19" s="189"/>
+      <c r="D19" s="195">
         <v>0.35</v>
       </c>
-      <c r="E19" s="195" t="s">
+      <c r="E19" s="189" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="203">
+      <c r="F19" s="197">
         <v>4</v>
       </c>
-      <c r="G19" s="199"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="201">
+      <c r="G19" s="193"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="195">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
@@ -10863,29 +11365,29 @@
       <c r="O19" s="59"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="195">
+      <c r="A20" s="189">
         <v>60</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="201">
+      <c r="C20" s="189"/>
+      <c r="D20" s="195">
         <v>0.01</v>
       </c>
-      <c r="E20" s="195" t="s">
+      <c r="E20" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="204">
+      <c r="F20" s="198">
         <v>296.8</v>
       </c>
-      <c r="G20" s="199" t="s">
+      <c r="G20" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="H20" s="195">
+      <c r="H20" s="189">
         <v>2</v>
       </c>
-      <c r="I20" s="201">
+      <c r="I20" s="195">
         <f t="shared" si="0"/>
         <v>5.9359999999999999</v>
       </c>
@@ -10904,10 +11406,10 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="125" t="s">
+      <c r="H21" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="121">
         <f>SUM(I15:I20)</f>
         <v>167.15200000000004</v>
       </c>
@@ -10926,8 +11428,8 @@
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="194"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="188"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -10953,31 +11455,31 @@
       <c r="O23" s="59"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="190" t="s">
+      <c r="A24" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="190" t="s">
+      <c r="C24" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="190" t="s">
+      <c r="D24" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="190" t="s">
+      <c r="E24" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="190" t="s">
+      <c r="F24" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="190" t="s">
+      <c r="G24" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="190" t="s">
+      <c r="H24" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="190" t="s">
+      <c r="I24" s="184" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="68"/>
@@ -11024,10 +11526,10 @@
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="192" t="s">
+      <c r="H26" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="191">
+      <c r="I26" s="185">
         <f>SUM(I25:I25)</f>
         <v>18.399999999999999</v>
       </c>
@@ -11080,10 +11582,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="141" t="s">
         <v>178</v>
       </c>
     </row>
@@ -11104,9 +11606,7 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11136,7 +11636,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -11151,14 +11651,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="71">
@@ -11168,7 +11668,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -11176,10 +11676,10 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="53"/>
@@ -11189,24 +11689,24 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>1</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="78" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -11214,7 +11714,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -11224,14 +11724,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>169</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -11239,12 +11739,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="116" t="s">
+      <c r="M5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
@@ -11254,7 +11754,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -11267,7 +11767,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -11277,7 +11777,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -11298,7 +11798,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -11319,7 +11819,7 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -11336,52 +11836,52 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="119" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -11391,7 +11891,7 @@
       <c r="D11" s="28">
         <v>100</v>
       </c>
-      <c r="E11" s="214">
+      <c r="E11" s="208">
         <f>J11*K11*L11</f>
         <v>0.14100000000000001</v>
       </c>
@@ -11401,10 +11901,10 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="88">
+      <c r="J11" s="86">
         <v>0.47</v>
       </c>
-      <c r="K11" s="189">
+      <c r="K11" s="183">
         <f>0.3/L11</f>
         <v>1.3636363636363637E-4</v>
       </c>
@@ -11433,10 +11933,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="123">
+      <c r="N12" s="121">
         <f>SUM(N11:N11)</f>
         <v>28.200000000000003</v>
       </c>
@@ -11460,31 +11960,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -11495,58 +11995,58 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="195">
+      <c r="A15" s="189">
         <v>10</v>
       </c>
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195">
+      <c r="C15" s="189"/>
+      <c r="D15" s="189">
         <v>0.06</v>
       </c>
-      <c r="E15" s="195" t="s">
+      <c r="E15" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="195">
+      <c r="F15" s="189">
         <v>258.60000000000002</v>
       </c>
-      <c r="G15" s="196" t="s">
+      <c r="G15" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H15" s="195">
+      <c r="H15" s="189">
         <v>2</v>
       </c>
-      <c r="I15" s="197">
+      <c r="I15" s="191">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>31.032</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196">
+      <c r="A16" s="190">
         <v>20</v>
       </c>
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197">
+      <c r="C16" s="190"/>
+      <c r="D16" s="191">
         <v>35</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="194">
         <f>J11</f>
         <v>0.47</v>
       </c>
-      <c r="G16" s="196" t="s">
+      <c r="G16" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="196">
+      <c r="H16" s="190">
         <v>2</v>
       </c>
-      <c r="I16" s="197">
+      <c r="I16" s="191">
         <f>IF(H16="",D16*F16,D16*F16*H16)</f>
         <v>32.9</v>
       </c>
@@ -11558,30 +12058,30 @@
       <c r="O16" s="66"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="195">
+      <c r="A17" s="189">
         <v>30</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="201">
+      <c r="C17" s="189"/>
+      <c r="D17" s="195">
         <v>5</v>
       </c>
-      <c r="E17" s="195" t="s">
+      <c r="E17" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="194">
         <f>J11</f>
         <v>0.47</v>
       </c>
-      <c r="G17" s="196" t="s">
+      <c r="G17" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="195">
+      <c r="H17" s="189">
         <v>2</v>
       </c>
-      <c r="I17" s="201">
+      <c r="I17" s="195">
         <f t="shared" ref="I17:I20" si="0">IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>4.6999999999999993</v>
       </c>
@@ -11593,26 +12093,26 @@
       <c r="O17" s="59"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196">
+      <c r="A18" s="190">
         <v>40</v>
       </c>
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="201">
+      <c r="C18" s="189"/>
+      <c r="D18" s="195">
         <v>10</v>
       </c>
-      <c r="E18" s="199" t="s">
+      <c r="E18" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="202">
+      <c r="F18" s="196">
         <f>J11</f>
         <v>0.47</v>
       </c>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="201">
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="195">
         <f t="shared" si="0"/>
         <v>4.6999999999999993</v>
       </c>
@@ -11624,25 +12124,25 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="195">
+      <c r="A19" s="189">
         <v>50</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="195"/>
-      <c r="D19" s="201">
+      <c r="C19" s="189"/>
+      <c r="D19" s="195">
         <v>0.35</v>
       </c>
-      <c r="E19" s="195" t="s">
+      <c r="E19" s="189" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="203">
+      <c r="F19" s="197">
         <v>5</v>
       </c>
-      <c r="G19" s="199"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="201">
+      <c r="G19" s="193"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="195">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
@@ -11654,29 +12154,29 @@
       <c r="O19" s="59"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="195">
+      <c r="A20" s="189">
         <v>60</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="201">
+      <c r="C20" s="189"/>
+      <c r="D20" s="195">
         <v>0.01</v>
       </c>
-      <c r="E20" s="195" t="s">
+      <c r="E20" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="195">
+      <c r="F20" s="189">
         <v>258.60000000000002</v>
       </c>
-      <c r="G20" s="199" t="s">
+      <c r="G20" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="H20" s="195">
+      <c r="H20" s="189">
         <v>2</v>
       </c>
-      <c r="I20" s="201">
+      <c r="I20" s="195">
         <f t="shared" si="0"/>
         <v>5.1720000000000006</v>
       </c>
@@ -11695,10 +12195,10 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="125" t="s">
+      <c r="H21" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="121">
         <f>SUM(I15:I20)</f>
         <v>80.254000000000005</v>
       </c>
@@ -11753,10 +12253,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="141" t="s">
         <v>177</v>
       </c>
     </row>
@@ -11806,7 +12306,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -11821,14 +12321,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="71">
@@ -11838,7 +12338,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -11846,10 +12346,10 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="53"/>
@@ -11859,24 +12359,24 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="72">
         <v>1</v>
       </c>
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="str">
+      <c r="B4" s="78" t="str">
         <f>'FR A0700'!B4</f>
         <v>Bodywork</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -11884,7 +12384,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -11894,14 +12394,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -11909,12 +12409,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="116" t="s">
+      <c r="M5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="71">
@@ -11924,7 +12424,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -11937,7 +12437,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="116" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -11947,7 +12447,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -11968,7 +12468,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -11989,7 +12489,7 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -12006,52 +12506,52 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="119" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -12061,7 +12561,7 @@
       <c r="D11" s="28">
         <v>100</v>
       </c>
-      <c r="E11" s="214">
+      <c r="E11" s="208">
         <f>J11*K11*L11</f>
         <v>0.14100000000000001</v>
       </c>
@@ -12071,10 +12571,10 @@
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="88">
+      <c r="J11" s="86">
         <v>0.47</v>
       </c>
-      <c r="K11" s="189">
+      <c r="K11" s="183">
         <f>0.3/L11</f>
         <v>1.3636363636363637E-4</v>
       </c>
@@ -12103,10 +12603,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="123">
+      <c r="N12" s="121">
         <f>SUM(N11:N11)</f>
         <v>28.200000000000003</v>
       </c>
@@ -12130,31 +12630,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -12165,58 +12665,58 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="195">
+      <c r="A15" s="189">
         <v>10</v>
       </c>
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195">
+      <c r="C15" s="189"/>
+      <c r="D15" s="189">
         <v>0.06</v>
       </c>
-      <c r="E15" s="195" t="s">
+      <c r="E15" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="195">
+      <c r="F15" s="189">
         <v>258.60000000000002</v>
       </c>
-      <c r="G15" s="196" t="s">
+      <c r="G15" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H15" s="195">
+      <c r="H15" s="189">
         <v>2</v>
       </c>
-      <c r="I15" s="197">
+      <c r="I15" s="191">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>31.032</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196">
+      <c r="A16" s="190">
         <v>20</v>
       </c>
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197">
+      <c r="C16" s="190"/>
+      <c r="D16" s="191">
         <v>35</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="194">
         <f>J11</f>
         <v>0.47</v>
       </c>
-      <c r="G16" s="196" t="s">
+      <c r="G16" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="196">
+      <c r="H16" s="190">
         <v>2</v>
       </c>
-      <c r="I16" s="197">
+      <c r="I16" s="191">
         <f>IF(H16="",D16*F16,D16*F16*H16)</f>
         <v>32.9</v>
       </c>
@@ -12228,30 +12728,30 @@
       <c r="O16" s="66"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="195">
+      <c r="A17" s="189">
         <v>30</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="201">
+      <c r="C17" s="189"/>
+      <c r="D17" s="195">
         <v>5</v>
       </c>
-      <c r="E17" s="195" t="s">
+      <c r="E17" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="194">
         <f>J11</f>
         <v>0.47</v>
       </c>
-      <c r="G17" s="196" t="s">
+      <c r="G17" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="195">
+      <c r="H17" s="189">
         <v>2</v>
       </c>
-      <c r="I17" s="201">
+      <c r="I17" s="195">
         <f t="shared" ref="I17:I20" si="0">IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>4.6999999999999993</v>
       </c>
@@ -12263,26 +12763,26 @@
       <c r="O17" s="59"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196">
+      <c r="A18" s="190">
         <v>40</v>
       </c>
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="201">
+      <c r="C18" s="189"/>
+      <c r="D18" s="195">
         <v>10</v>
       </c>
-      <c r="E18" s="199" t="s">
+      <c r="E18" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="202">
+      <c r="F18" s="196">
         <f>J11</f>
         <v>0.47</v>
       </c>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="201">
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="195">
         <f t="shared" si="0"/>
         <v>4.6999999999999993</v>
       </c>
@@ -12294,25 +12794,25 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="195">
+      <c r="A19" s="189">
         <v>50</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="195"/>
-      <c r="D19" s="201">
+      <c r="C19" s="189"/>
+      <c r="D19" s="195">
         <v>0.35</v>
       </c>
-      <c r="E19" s="195" t="s">
+      <c r="E19" s="189" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="203">
+      <c r="F19" s="197">
         <v>5</v>
       </c>
-      <c r="G19" s="199"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="201">
+      <c r="G19" s="193"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="195">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
@@ -12324,29 +12824,29 @@
       <c r="O19" s="59"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="195">
+      <c r="A20" s="189">
         <v>60</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="201">
+      <c r="C20" s="189"/>
+      <c r="D20" s="195">
         <v>0.01</v>
       </c>
-      <c r="E20" s="195" t="s">
+      <c r="E20" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="195">
+      <c r="F20" s="189">
         <v>258.60000000000002</v>
       </c>
-      <c r="G20" s="199" t="s">
+      <c r="G20" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="H20" s="195">
+      <c r="H20" s="189">
         <v>2</v>
       </c>
-      <c r="I20" s="201">
+      <c r="I20" s="195">
         <f t="shared" si="0"/>
         <v>5.1720000000000006</v>
       </c>
@@ -12365,10 +12865,10 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="125" t="s">
+      <c r="H21" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="121">
         <f>SUM(I15:I20)</f>
         <v>80.254000000000005</v>
       </c>
@@ -12422,7 +12922,7 @@
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>176</v>
       </c>
     </row>
